--- a/ProjectFiles/HECO/PyDSS Settings/HP-VV-VW-R/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/HECO/PyDSS Settings/HP-VV-VW-R/pyControllerList/PV Controller.xlsx
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3079,7 @@
         <v>564</v>
       </c>
       <c r="X3" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y3" s="4">
         <v>0.7</v>
@@ -3156,7 +3156,7 @@
         <v>564</v>
       </c>
       <c r="X4" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y4" s="4">
         <v>0.7</v>
@@ -3233,7 +3233,7 @@
         <v>564</v>
       </c>
       <c r="X5" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y5" s="4">
         <v>0.7</v>
@@ -3310,7 +3310,7 @@
         <v>564</v>
       </c>
       <c r="X6" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y6" s="4">
         <v>0.7</v>
@@ -3387,7 +3387,7 @@
         <v>564</v>
       </c>
       <c r="X7" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y7" s="4">
         <v>0.7</v>
@@ -3464,7 +3464,7 @@
         <v>564</v>
       </c>
       <c r="X8" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y8" s="4">
         <v>0.7</v>
@@ -3541,7 +3541,7 @@
         <v>564</v>
       </c>
       <c r="X9" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y9" s="4">
         <v>0.7</v>
@@ -3618,7 +3618,7 @@
         <v>564</v>
       </c>
       <c r="X10" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y10" s="4">
         <v>0.7</v>
@@ -3695,7 +3695,7 @@
         <v>564</v>
       </c>
       <c r="X11" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y11" s="4">
         <v>0.7</v>
@@ -3772,7 +3772,7 @@
         <v>564</v>
       </c>
       <c r="X12" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y12" s="4">
         <v>0.7</v>
@@ -3849,7 +3849,7 @@
         <v>564</v>
       </c>
       <c r="X13" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y13" s="4">
         <v>0.7</v>
@@ -3926,7 +3926,7 @@
         <v>564</v>
       </c>
       <c r="X14" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y14" s="4">
         <v>0.7</v>
@@ -4003,7 +4003,7 @@
         <v>564</v>
       </c>
       <c r="X15" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y15" s="4">
         <v>0.7</v>
@@ -4080,7 +4080,7 @@
         <v>564</v>
       </c>
       <c r="X16" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y16" s="4">
         <v>0.7</v>
@@ -4157,7 +4157,7 @@
         <v>564</v>
       </c>
       <c r="X17" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y17" s="4">
         <v>0.7</v>
@@ -4234,7 +4234,7 @@
         <v>564</v>
       </c>
       <c r="X18" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y18" s="4">
         <v>0.7</v>
@@ -4311,7 +4311,7 @@
         <v>564</v>
       </c>
       <c r="X19" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y19" s="4">
         <v>0.7</v>
@@ -4388,7 +4388,7 @@
         <v>564</v>
       </c>
       <c r="X20" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y20" s="4">
         <v>0.7</v>
@@ -4465,7 +4465,7 @@
         <v>564</v>
       </c>
       <c r="X21" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y21" s="4">
         <v>0.7</v>
@@ -4542,7 +4542,7 @@
         <v>564</v>
       </c>
       <c r="X22" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y22" s="4">
         <v>0.7</v>
@@ -4619,7 +4619,7 @@
         <v>564</v>
       </c>
       <c r="X23" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y23" s="4">
         <v>0.7</v>
@@ -4696,7 +4696,7 @@
         <v>564</v>
       </c>
       <c r="X24" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y24" s="4">
         <v>0.7</v>
@@ -4773,7 +4773,7 @@
         <v>564</v>
       </c>
       <c r="X25" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y25" s="4">
         <v>0.7</v>
@@ -4850,7 +4850,7 @@
         <v>564</v>
       </c>
       <c r="X26" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y26" s="4">
         <v>0.7</v>
@@ -4927,7 +4927,7 @@
         <v>564</v>
       </c>
       <c r="X27" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y27" s="4">
         <v>0.7</v>
@@ -5004,7 +5004,7 @@
         <v>564</v>
       </c>
       <c r="X28" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y28" s="4">
         <v>0.7</v>
@@ -5081,7 +5081,7 @@
         <v>564</v>
       </c>
       <c r="X29" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y29" s="4">
         <v>0.7</v>
@@ -5158,7 +5158,7 @@
         <v>564</v>
       </c>
       <c r="X30" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y30" s="4">
         <v>0.7</v>
@@ -5235,7 +5235,7 @@
         <v>564</v>
       </c>
       <c r="X31" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y31" s="4">
         <v>0.7</v>
@@ -5312,7 +5312,7 @@
         <v>564</v>
       </c>
       <c r="X32" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y32" s="4">
         <v>0.7</v>
@@ -5389,7 +5389,7 @@
         <v>564</v>
       </c>
       <c r="X33" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y33" s="4">
         <v>0.7</v>
@@ -5466,7 +5466,7 @@
         <v>564</v>
       </c>
       <c r="X34" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y34" s="4">
         <v>0.7</v>
@@ -5543,7 +5543,7 @@
         <v>564</v>
       </c>
       <c r="X35" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y35" s="4">
         <v>0.7</v>
@@ -5620,7 +5620,7 @@
         <v>564</v>
       </c>
       <c r="X36" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y36" s="4">
         <v>0.7</v>
@@ -5697,7 +5697,7 @@
         <v>564</v>
       </c>
       <c r="X37" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y37" s="4">
         <v>0.7</v>
@@ -5774,7 +5774,7 @@
         <v>564</v>
       </c>
       <c r="X38" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y38" s="4">
         <v>0.7</v>
@@ -5851,7 +5851,7 @@
         <v>564</v>
       </c>
       <c r="X39" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y39" s="4">
         <v>0.7</v>
@@ -5928,7 +5928,7 @@
         <v>564</v>
       </c>
       <c r="X40" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y40" s="4">
         <v>0.7</v>
@@ -6005,7 +6005,7 @@
         <v>564</v>
       </c>
       <c r="X41" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y41" s="4">
         <v>0.7</v>
@@ -6082,7 +6082,7 @@
         <v>564</v>
       </c>
       <c r="X42" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y42" s="4">
         <v>0.7</v>
@@ -6159,7 +6159,7 @@
         <v>564</v>
       </c>
       <c r="X43" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y43" s="4">
         <v>0.7</v>
@@ -6236,7 +6236,7 @@
         <v>564</v>
       </c>
       <c r="X44" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y44" s="4">
         <v>0.7</v>
@@ -6313,7 +6313,7 @@
         <v>564</v>
       </c>
       <c r="X45" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y45" s="4">
         <v>0.7</v>
@@ -6390,7 +6390,7 @@
         <v>564</v>
       </c>
       <c r="X46" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y46" s="4">
         <v>0.7</v>
@@ -6467,7 +6467,7 @@
         <v>564</v>
       </c>
       <c r="X47" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y47" s="4">
         <v>0.7</v>
@@ -6544,7 +6544,7 @@
         <v>564</v>
       </c>
       <c r="X48" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y48" s="4">
         <v>0.7</v>
@@ -6621,7 +6621,7 @@
         <v>564</v>
       </c>
       <c r="X49" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y49" s="4">
         <v>0.7</v>
@@ -6698,7 +6698,7 @@
         <v>564</v>
       </c>
       <c r="X50" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y50" s="4">
         <v>0.7</v>
@@ -6775,7 +6775,7 @@
         <v>564</v>
       </c>
       <c r="X51" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y51" s="4">
         <v>0.7</v>
@@ -6852,7 +6852,7 @@
         <v>564</v>
       </c>
       <c r="X52" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y52" s="4">
         <v>0.7</v>
@@ -6929,7 +6929,7 @@
         <v>564</v>
       </c>
       <c r="X53" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y53" s="4">
         <v>0.7</v>
@@ -7006,7 +7006,7 @@
         <v>564</v>
       </c>
       <c r="X54" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y54" s="4">
         <v>0.7</v>
@@ -7083,7 +7083,7 @@
         <v>564</v>
       </c>
       <c r="X55" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y55" s="4">
         <v>0.7</v>
@@ -7160,7 +7160,7 @@
         <v>564</v>
       </c>
       <c r="X56" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y56" s="4">
         <v>0.7</v>
@@ -7237,7 +7237,7 @@
         <v>564</v>
       </c>
       <c r="X57" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y57" s="4">
         <v>0.7</v>
@@ -7314,7 +7314,7 @@
         <v>564</v>
       </c>
       <c r="X58" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y58" s="4">
         <v>0.7</v>
@@ -7391,7 +7391,7 @@
         <v>564</v>
       </c>
       <c r="X59" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y59" s="4">
         <v>0.7</v>
@@ -7468,7 +7468,7 @@
         <v>564</v>
       </c>
       <c r="X60" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y60" s="4">
         <v>0.7</v>
@@ -7545,7 +7545,7 @@
         <v>564</v>
       </c>
       <c r="X61" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y61" s="4">
         <v>0.7</v>
@@ -7622,7 +7622,7 @@
         <v>564</v>
       </c>
       <c r="X62" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y62" s="4">
         <v>0.7</v>
@@ -7699,7 +7699,7 @@
         <v>564</v>
       </c>
       <c r="X63" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y63" s="4">
         <v>0.7</v>
@@ -7776,7 +7776,7 @@
         <v>564</v>
       </c>
       <c r="X64" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y64" s="4">
         <v>0.7</v>
@@ -7853,7 +7853,7 @@
         <v>564</v>
       </c>
       <c r="X65" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y65" s="4">
         <v>0.7</v>
@@ -7930,7 +7930,7 @@
         <v>564</v>
       </c>
       <c r="X66" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y66" s="4">
         <v>0.7</v>
@@ -8007,7 +8007,7 @@
         <v>564</v>
       </c>
       <c r="X67" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y67" s="4">
         <v>0.7</v>
@@ -8084,7 +8084,7 @@
         <v>564</v>
       </c>
       <c r="X68" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y68" s="4">
         <v>0.7</v>
@@ -8161,7 +8161,7 @@
         <v>564</v>
       </c>
       <c r="X69" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y69" s="4">
         <v>0.7</v>
@@ -8238,7 +8238,7 @@
         <v>564</v>
       </c>
       <c r="X70" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y70" s="4">
         <v>0.7</v>
@@ -8315,7 +8315,7 @@
         <v>564</v>
       </c>
       <c r="X71" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y71" s="4">
         <v>0.7</v>
@@ -8392,7 +8392,7 @@
         <v>564</v>
       </c>
       <c r="X72" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y72" s="4">
         <v>0.7</v>
@@ -8469,7 +8469,7 @@
         <v>564</v>
       </c>
       <c r="X73" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y73" s="4">
         <v>0.7</v>
@@ -8546,7 +8546,7 @@
         <v>564</v>
       </c>
       <c r="X74" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y74" s="4">
         <v>0.7</v>
@@ -8623,7 +8623,7 @@
         <v>564</v>
       </c>
       <c r="X75" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y75" s="4">
         <v>0.7</v>
@@ -8700,7 +8700,7 @@
         <v>564</v>
       </c>
       <c r="X76" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y76" s="4">
         <v>0.7</v>
@@ -8777,7 +8777,7 @@
         <v>564</v>
       </c>
       <c r="X77" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y77" s="4">
         <v>0.7</v>
@@ -8854,7 +8854,7 @@
         <v>564</v>
       </c>
       <c r="X78" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y78" s="4">
         <v>0.7</v>
@@ -8931,7 +8931,7 @@
         <v>564</v>
       </c>
       <c r="X79" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y79" s="4">
         <v>0.7</v>
@@ -9008,7 +9008,7 @@
         <v>564</v>
       </c>
       <c r="X80" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y80" s="4">
         <v>0.7</v>
@@ -9085,7 +9085,7 @@
         <v>564</v>
       </c>
       <c r="X81" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y81" s="4">
         <v>0.7</v>
@@ -9162,7 +9162,7 @@
         <v>564</v>
       </c>
       <c r="X82" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y82" s="4">
         <v>0.7</v>
@@ -9239,7 +9239,7 @@
         <v>564</v>
       </c>
       <c r="X83" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y83" s="4">
         <v>0.7</v>
@@ -9316,7 +9316,7 @@
         <v>564</v>
       </c>
       <c r="X84" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y84" s="4">
         <v>0.7</v>
@@ -9393,7 +9393,7 @@
         <v>564</v>
       </c>
       <c r="X85" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y85" s="4">
         <v>0.7</v>
@@ -9470,7 +9470,7 @@
         <v>564</v>
       </c>
       <c r="X86" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y86" s="4">
         <v>0.7</v>
@@ -9547,7 +9547,7 @@
         <v>564</v>
       </c>
       <c r="X87" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y87" s="4">
         <v>0.7</v>
@@ -9624,7 +9624,7 @@
         <v>564</v>
       </c>
       <c r="X88" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y88" s="4">
         <v>0.7</v>
@@ -9701,7 +9701,7 @@
         <v>564</v>
       </c>
       <c r="X89" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y89" s="4">
         <v>0.7</v>
@@ -9778,7 +9778,7 @@
         <v>564</v>
       </c>
       <c r="X90" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y90" s="4">
         <v>0.7</v>
@@ -9855,7 +9855,7 @@
         <v>564</v>
       </c>
       <c r="X91" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y91" s="4">
         <v>0.7</v>
@@ -9932,7 +9932,7 @@
         <v>564</v>
       </c>
       <c r="X92" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y92" s="4">
         <v>0.7</v>
@@ -10009,7 +10009,7 @@
         <v>564</v>
       </c>
       <c r="X93" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y93" s="4">
         <v>0.7</v>
@@ -10086,7 +10086,7 @@
         <v>564</v>
       </c>
       <c r="X94" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y94" s="4">
         <v>0.7</v>
@@ -10163,7 +10163,7 @@
         <v>564</v>
       </c>
       <c r="X95" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y95" s="4">
         <v>0.7</v>
@@ -10240,7 +10240,7 @@
         <v>564</v>
       </c>
       <c r="X96" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y96" s="4">
         <v>0.7</v>
@@ -10317,7 +10317,7 @@
         <v>564</v>
       </c>
       <c r="X97" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y97" s="4">
         <v>0.7</v>
@@ -10394,7 +10394,7 @@
         <v>564</v>
       </c>
       <c r="X98" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y98" s="4">
         <v>0.7</v>
@@ -10471,7 +10471,7 @@
         <v>564</v>
       </c>
       <c r="X99" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y99" s="4">
         <v>0.7</v>
@@ -10548,7 +10548,7 @@
         <v>564</v>
       </c>
       <c r="X100" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y100" s="4">
         <v>0.7</v>
@@ -10625,7 +10625,7 @@
         <v>564</v>
       </c>
       <c r="X101" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y101" s="4">
         <v>0.7</v>
@@ -10702,7 +10702,7 @@
         <v>564</v>
       </c>
       <c r="X102" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y102" s="4">
         <v>0.7</v>
@@ -10779,7 +10779,7 @@
         <v>564</v>
       </c>
       <c r="X103" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y103" s="4">
         <v>0.7</v>
@@ -10856,7 +10856,7 @@
         <v>564</v>
       </c>
       <c r="X104" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y104" s="4">
         <v>0.7</v>
@@ -10933,7 +10933,7 @@
         <v>564</v>
       </c>
       <c r="X105" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y105" s="4">
         <v>0.7</v>
@@ -11010,7 +11010,7 @@
         <v>564</v>
       </c>
       <c r="X106" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y106" s="4">
         <v>0.7</v>
@@ -11087,7 +11087,7 @@
         <v>564</v>
       </c>
       <c r="X107" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y107" s="4">
         <v>0.7</v>
@@ -11164,7 +11164,7 @@
         <v>564</v>
       </c>
       <c r="X108" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y108" s="4">
         <v>0.7</v>
@@ -11241,7 +11241,7 @@
         <v>564</v>
       </c>
       <c r="X109" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y109" s="4">
         <v>0.7</v>
@@ -11318,7 +11318,7 @@
         <v>564</v>
       </c>
       <c r="X110" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y110" s="4">
         <v>0.7</v>
@@ -11395,7 +11395,7 @@
         <v>564</v>
       </c>
       <c r="X111" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y111" s="4">
         <v>0.7</v>
@@ -11472,7 +11472,7 @@
         <v>564</v>
       </c>
       <c r="X112" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y112" s="4">
         <v>0.7</v>
@@ -11549,7 +11549,7 @@
         <v>564</v>
       </c>
       <c r="X113" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y113" s="4">
         <v>0.7</v>
@@ -11626,7 +11626,7 @@
         <v>564</v>
       </c>
       <c r="X114" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y114" s="4">
         <v>0.7</v>
@@ -11703,7 +11703,7 @@
         <v>564</v>
       </c>
       <c r="X115" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y115" s="4">
         <v>0.7</v>
@@ -11780,7 +11780,7 @@
         <v>564</v>
       </c>
       <c r="X116" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y116" s="4">
         <v>0.7</v>
@@ -11857,7 +11857,7 @@
         <v>564</v>
       </c>
       <c r="X117" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y117" s="4">
         <v>0.7</v>
@@ -11934,7 +11934,7 @@
         <v>564</v>
       </c>
       <c r="X118" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y118" s="4">
         <v>0.7</v>
@@ -12011,7 +12011,7 @@
         <v>564</v>
       </c>
       <c r="X119" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y119" s="4">
         <v>0.7</v>
@@ -12088,7 +12088,7 @@
         <v>564</v>
       </c>
       <c r="X120" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y120" s="4">
         <v>0.7</v>
@@ -12165,7 +12165,7 @@
         <v>564</v>
       </c>
       <c r="X121" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y121" s="4">
         <v>0.7</v>
@@ -12242,7 +12242,7 @@
         <v>564</v>
       </c>
       <c r="X122" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y122" s="4">
         <v>0.7</v>
@@ -12319,7 +12319,7 @@
         <v>564</v>
       </c>
       <c r="X123" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y123" s="4">
         <v>0.7</v>
@@ -12396,7 +12396,7 @@
         <v>564</v>
       </c>
       <c r="X124" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y124" s="4">
         <v>0.7</v>
@@ -12473,7 +12473,7 @@
         <v>564</v>
       </c>
       <c r="X125" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y125" s="4">
         <v>0.7</v>
@@ -12550,7 +12550,7 @@
         <v>564</v>
       </c>
       <c r="X126" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y126" s="4">
         <v>0.7</v>
@@ -12627,7 +12627,7 @@
         <v>564</v>
       </c>
       <c r="X127" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y127" s="4">
         <v>0.7</v>
@@ -12704,7 +12704,7 @@
         <v>564</v>
       </c>
       <c r="X128" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y128" s="4">
         <v>0.7</v>
@@ -12781,7 +12781,7 @@
         <v>564</v>
       </c>
       <c r="X129" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y129" s="4">
         <v>0.7</v>
@@ -12858,7 +12858,7 @@
         <v>564</v>
       </c>
       <c r="X130" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y130" s="4">
         <v>0.7</v>
@@ -12935,7 +12935,7 @@
         <v>564</v>
       </c>
       <c r="X131" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y131" s="4">
         <v>0.7</v>
@@ -13012,7 +13012,7 @@
         <v>564</v>
       </c>
       <c r="X132" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y132" s="4">
         <v>0.7</v>
@@ -13089,7 +13089,7 @@
         <v>564</v>
       </c>
       <c r="X133" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y133" s="4">
         <v>0.7</v>
@@ -13166,7 +13166,7 @@
         <v>564</v>
       </c>
       <c r="X134" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y134" s="4">
         <v>0.7</v>
@@ -13243,7 +13243,7 @@
         <v>564</v>
       </c>
       <c r="X135" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y135" s="4">
         <v>0.7</v>
@@ -13320,7 +13320,7 @@
         <v>564</v>
       </c>
       <c r="X136" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y136" s="4">
         <v>0.7</v>
@@ -13397,7 +13397,7 @@
         <v>564</v>
       </c>
       <c r="X137" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y137" s="4">
         <v>0.7</v>
@@ -13474,7 +13474,7 @@
         <v>564</v>
       </c>
       <c r="X138" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y138" s="4">
         <v>0.7</v>
@@ -13551,7 +13551,7 @@
         <v>564</v>
       </c>
       <c r="X139" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y139" s="4">
         <v>0.7</v>
@@ -13628,7 +13628,7 @@
         <v>564</v>
       </c>
       <c r="X140" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y140" s="4">
         <v>0.7</v>
@@ -13705,7 +13705,7 @@
         <v>564</v>
       </c>
       <c r="X141" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y141" s="4">
         <v>0.7</v>
@@ -13782,7 +13782,7 @@
         <v>564</v>
       </c>
       <c r="X142" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y142" s="4">
         <v>0.7</v>
@@ -13859,7 +13859,7 @@
         <v>564</v>
       </c>
       <c r="X143" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y143" s="4">
         <v>0.7</v>
@@ -13936,7 +13936,7 @@
         <v>564</v>
       </c>
       <c r="X144" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y144" s="4">
         <v>0.7</v>
@@ -14013,7 +14013,7 @@
         <v>564</v>
       </c>
       <c r="X145" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y145" s="4">
         <v>0.7</v>
@@ -14090,7 +14090,7 @@
         <v>564</v>
       </c>
       <c r="X146" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y146" s="4">
         <v>0.7</v>
@@ -14167,7 +14167,7 @@
         <v>564</v>
       </c>
       <c r="X147" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y147" s="4">
         <v>0.7</v>
@@ -14244,7 +14244,7 @@
         <v>564</v>
       </c>
       <c r="X148" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y148" s="4">
         <v>0.7</v>
@@ -14321,7 +14321,7 @@
         <v>564</v>
       </c>
       <c r="X149" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y149" s="4">
         <v>0.7</v>
@@ -14398,7 +14398,7 @@
         <v>564</v>
       </c>
       <c r="X150" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y150" s="4">
         <v>0.7</v>
@@ -14475,7 +14475,7 @@
         <v>564</v>
       </c>
       <c r="X151" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y151" s="4">
         <v>0.7</v>
@@ -14552,7 +14552,7 @@
         <v>564</v>
       </c>
       <c r="X152" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y152" s="4">
         <v>0.7</v>
@@ -14629,7 +14629,7 @@
         <v>564</v>
       </c>
       <c r="X153" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y153" s="4">
         <v>0.7</v>
@@ -14706,7 +14706,7 @@
         <v>564</v>
       </c>
       <c r="X154" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y154" s="4">
         <v>0.7</v>
@@ -14783,7 +14783,7 @@
         <v>564</v>
       </c>
       <c r="X155" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y155" s="4">
         <v>0.7</v>
@@ -14860,7 +14860,7 @@
         <v>564</v>
       </c>
       <c r="X156" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y156" s="4">
         <v>0.7</v>
@@ -14937,7 +14937,7 @@
         <v>564</v>
       </c>
       <c r="X157" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y157" s="4">
         <v>0.7</v>
@@ -15014,7 +15014,7 @@
         <v>564</v>
       </c>
       <c r="X158" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y158" s="4">
         <v>0.7</v>
@@ -15091,7 +15091,7 @@
         <v>564</v>
       </c>
       <c r="X159" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y159" s="4">
         <v>0.7</v>
@@ -15168,7 +15168,7 @@
         <v>564</v>
       </c>
       <c r="X160" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y160" s="4">
         <v>0.7</v>
@@ -15245,7 +15245,7 @@
         <v>564</v>
       </c>
       <c r="X161" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y161" s="4">
         <v>0.7</v>
@@ -15322,7 +15322,7 @@
         <v>564</v>
       </c>
       <c r="X162" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y162" s="4">
         <v>0.7</v>
@@ -15399,7 +15399,7 @@
         <v>564</v>
       </c>
       <c r="X163" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y163" s="4">
         <v>0.7</v>
@@ -15476,7 +15476,7 @@
         <v>564</v>
       </c>
       <c r="X164" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y164" s="4">
         <v>0.7</v>
@@ -15553,7 +15553,7 @@
         <v>564</v>
       </c>
       <c r="X165" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y165" s="4">
         <v>0.7</v>
@@ -15630,7 +15630,7 @@
         <v>564</v>
       </c>
       <c r="X166" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y166" s="4">
         <v>0.7</v>
@@ -15707,7 +15707,7 @@
         <v>564</v>
       </c>
       <c r="X167" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y167" s="4">
         <v>0.7</v>
@@ -15784,7 +15784,7 @@
         <v>564</v>
       </c>
       <c r="X168" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y168" s="4">
         <v>0.7</v>
@@ -15861,7 +15861,7 @@
         <v>564</v>
       </c>
       <c r="X169" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y169" s="4">
         <v>0.7</v>
@@ -15938,7 +15938,7 @@
         <v>564</v>
       </c>
       <c r="X170" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y170" s="4">
         <v>0.7</v>
@@ -16015,7 +16015,7 @@
         <v>564</v>
       </c>
       <c r="X171" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y171" s="4">
         <v>0.7</v>
@@ -16092,7 +16092,7 @@
         <v>564</v>
       </c>
       <c r="X172" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y172" s="4">
         <v>0.7</v>
@@ -16169,7 +16169,7 @@
         <v>564</v>
       </c>
       <c r="X173" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y173" s="4">
         <v>0.7</v>
@@ -16246,7 +16246,7 @@
         <v>564</v>
       </c>
       <c r="X174" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y174" s="4">
         <v>0.7</v>
@@ -16323,7 +16323,7 @@
         <v>564</v>
       </c>
       <c r="X175" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y175" s="4">
         <v>0.7</v>
@@ -16400,7 +16400,7 @@
         <v>564</v>
       </c>
       <c r="X176" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y176" s="4">
         <v>0.7</v>
@@ -16477,7 +16477,7 @@
         <v>564</v>
       </c>
       <c r="X177" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y177" s="4">
         <v>0.7</v>
@@ -16554,7 +16554,7 @@
         <v>564</v>
       </c>
       <c r="X178" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y178" s="4">
         <v>0.7</v>
@@ -16631,7 +16631,7 @@
         <v>564</v>
       </c>
       <c r="X179" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y179" s="4">
         <v>0.7</v>
@@ -16708,7 +16708,7 @@
         <v>564</v>
       </c>
       <c r="X180" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y180" s="4">
         <v>0.7</v>
@@ -16785,7 +16785,7 @@
         <v>564</v>
       </c>
       <c r="X181" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y181" s="4">
         <v>0.7</v>
@@ -16862,7 +16862,7 @@
         <v>564</v>
       </c>
       <c r="X182" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y182" s="4">
         <v>0.7</v>
@@ -16939,7 +16939,7 @@
         <v>564</v>
       </c>
       <c r="X183" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y183" s="4">
         <v>0.7</v>
@@ -17016,7 +17016,7 @@
         <v>564</v>
       </c>
       <c r="X184" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y184" s="4">
         <v>0.7</v>
@@ -17093,7 +17093,7 @@
         <v>564</v>
       </c>
       <c r="X185" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y185" s="4">
         <v>0.7</v>
@@ -17170,7 +17170,7 @@
         <v>564</v>
       </c>
       <c r="X186" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y186" s="4">
         <v>0.7</v>
@@ -17247,7 +17247,7 @@
         <v>564</v>
       </c>
       <c r="X187" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y187" s="4">
         <v>0.7</v>
@@ -17324,7 +17324,7 @@
         <v>564</v>
       </c>
       <c r="X188" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y188" s="4">
         <v>0.7</v>
@@ -17401,7 +17401,7 @@
         <v>564</v>
       </c>
       <c r="X189" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y189" s="4">
         <v>0.7</v>
@@ -17478,7 +17478,7 @@
         <v>564</v>
       </c>
       <c r="X190" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y190" s="4">
         <v>0.7</v>
@@ -17555,7 +17555,7 @@
         <v>564</v>
       </c>
       <c r="X191" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y191" s="4">
         <v>0.7</v>
@@ -17632,7 +17632,7 @@
         <v>564</v>
       </c>
       <c r="X192" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y192" s="4">
         <v>0.7</v>
@@ -17709,7 +17709,7 @@
         <v>564</v>
       </c>
       <c r="X193" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y193" s="4">
         <v>0.7</v>
@@ -17786,7 +17786,7 @@
         <v>564</v>
       </c>
       <c r="X194" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y194" s="4">
         <v>0.7</v>
@@ -17863,7 +17863,7 @@
         <v>564</v>
       </c>
       <c r="X195" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y195" s="4">
         <v>0.7</v>
@@ -17940,7 +17940,7 @@
         <v>564</v>
       </c>
       <c r="X196" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y196" s="4">
         <v>0.7</v>
@@ -18017,7 +18017,7 @@
         <v>564</v>
       </c>
       <c r="X197" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y197" s="4">
         <v>0.7</v>
@@ -18094,7 +18094,7 @@
         <v>564</v>
       </c>
       <c r="X198" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y198" s="4">
         <v>0.7</v>
@@ -18171,7 +18171,7 @@
         <v>564</v>
       </c>
       <c r="X199" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y199" s="4">
         <v>0.7</v>
@@ -18248,7 +18248,7 @@
         <v>564</v>
       </c>
       <c r="X200" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y200" s="4">
         <v>0.7</v>
@@ -18325,7 +18325,7 @@
         <v>564</v>
       </c>
       <c r="X201" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y201" s="4">
         <v>0.7</v>
@@ -18402,7 +18402,7 @@
         <v>564</v>
       </c>
       <c r="X202" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y202" s="4">
         <v>0.7</v>
@@ -18479,7 +18479,7 @@
         <v>564</v>
       </c>
       <c r="X203" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y203" s="4">
         <v>0.7</v>
@@ -18556,7 +18556,7 @@
         <v>564</v>
       </c>
       <c r="X204" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y204" s="4">
         <v>0.7</v>
@@ -18633,7 +18633,7 @@
         <v>564</v>
       </c>
       <c r="X205" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y205" s="4">
         <v>0.7</v>
@@ -18710,7 +18710,7 @@
         <v>564</v>
       </c>
       <c r="X206" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y206" s="4">
         <v>0.7</v>
@@ -18787,7 +18787,7 @@
         <v>564</v>
       </c>
       <c r="X207" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y207" s="4">
         <v>0.7</v>
@@ -18864,7 +18864,7 @@
         <v>564</v>
       </c>
       <c r="X208" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y208" s="4">
         <v>0.7</v>
@@ -18941,7 +18941,7 @@
         <v>564</v>
       </c>
       <c r="X209" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y209" s="4">
         <v>0.7</v>
@@ -19018,7 +19018,7 @@
         <v>564</v>
       </c>
       <c r="X210" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y210" s="4">
         <v>0.7</v>
@@ -19095,7 +19095,7 @@
         <v>564</v>
       </c>
       <c r="X211" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y211" s="4">
         <v>0.7</v>
@@ -19172,7 +19172,7 @@
         <v>564</v>
       </c>
       <c r="X212" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y212" s="4">
         <v>0.7</v>
@@ -19249,7 +19249,7 @@
         <v>564</v>
       </c>
       <c r="X213" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y213" s="4">
         <v>0.7</v>
@@ -19326,7 +19326,7 @@
         <v>564</v>
       </c>
       <c r="X214" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y214" s="4">
         <v>0.7</v>
@@ -19403,7 +19403,7 @@
         <v>564</v>
       </c>
       <c r="X215" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y215" s="4">
         <v>0.7</v>
@@ -19480,7 +19480,7 @@
         <v>564</v>
       </c>
       <c r="X216" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y216" s="4">
         <v>0.7</v>
@@ -19557,7 +19557,7 @@
         <v>564</v>
       </c>
       <c r="X217" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y217" s="4">
         <v>0.7</v>
@@ -19634,7 +19634,7 @@
         <v>564</v>
       </c>
       <c r="X218" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y218" s="4">
         <v>0.7</v>
@@ -19711,7 +19711,7 @@
         <v>564</v>
       </c>
       <c r="X219" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y219" s="4">
         <v>0.7</v>
@@ -19788,7 +19788,7 @@
         <v>564</v>
       </c>
       <c r="X220" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y220" s="4">
         <v>0.7</v>
@@ -19865,7 +19865,7 @@
         <v>564</v>
       </c>
       <c r="X221" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y221" s="4">
         <v>0.7</v>
@@ -19942,7 +19942,7 @@
         <v>564</v>
       </c>
       <c r="X222" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y222" s="4">
         <v>0.7</v>
@@ -20019,7 +20019,7 @@
         <v>564</v>
       </c>
       <c r="X223" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y223" s="4">
         <v>0.7</v>
@@ -20096,7 +20096,7 @@
         <v>564</v>
       </c>
       <c r="X224" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y224" s="4">
         <v>0.7</v>
@@ -20173,7 +20173,7 @@
         <v>564</v>
       </c>
       <c r="X225" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y225" s="4">
         <v>0.7</v>
@@ -20250,7 +20250,7 @@
         <v>564</v>
       </c>
       <c r="X226" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y226" s="4">
         <v>0.7</v>
@@ -20327,7 +20327,7 @@
         <v>564</v>
       </c>
       <c r="X227" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y227" s="4">
         <v>0.7</v>
@@ -20404,7 +20404,7 @@
         <v>564</v>
       </c>
       <c r="X228" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y228" s="4">
         <v>0.7</v>
@@ -20481,7 +20481,7 @@
         <v>564</v>
       </c>
       <c r="X229" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y229" s="4">
         <v>0.7</v>
@@ -20558,7 +20558,7 @@
         <v>564</v>
       </c>
       <c r="X230" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y230" s="4">
         <v>0.7</v>
@@ -20635,7 +20635,7 @@
         <v>564</v>
       </c>
       <c r="X231" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y231" s="4">
         <v>0.7</v>
@@ -20712,7 +20712,7 @@
         <v>564</v>
       </c>
       <c r="X232" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y232" s="4">
         <v>0.7</v>
@@ -20789,7 +20789,7 @@
         <v>564</v>
       </c>
       <c r="X233" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y233" s="4">
         <v>0.7</v>
@@ -20866,7 +20866,7 @@
         <v>564</v>
       </c>
       <c r="X234" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y234" s="4">
         <v>0.7</v>
@@ -20943,7 +20943,7 @@
         <v>564</v>
       </c>
       <c r="X235" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y235" s="4">
         <v>0.7</v>
@@ -21020,7 +21020,7 @@
         <v>564</v>
       </c>
       <c r="X236" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y236" s="4">
         <v>0.7</v>
@@ -21097,7 +21097,7 @@
         <v>564</v>
       </c>
       <c r="X237" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y237" s="4">
         <v>0.7</v>
@@ -21174,7 +21174,7 @@
         <v>564</v>
       </c>
       <c r="X238" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y238" s="4">
         <v>0.7</v>
@@ -21251,7 +21251,7 @@
         <v>564</v>
       </c>
       <c r="X239" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y239" s="4">
         <v>0.7</v>
@@ -21328,7 +21328,7 @@
         <v>564</v>
       </c>
       <c r="X240" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y240" s="4">
         <v>0.7</v>
@@ -21405,7 +21405,7 @@
         <v>564</v>
       </c>
       <c r="X241" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y241" s="4">
         <v>0.7</v>
@@ -21482,7 +21482,7 @@
         <v>564</v>
       </c>
       <c r="X242" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y242" s="4">
         <v>0.7</v>
@@ -21559,7 +21559,7 @@
         <v>564</v>
       </c>
       <c r="X243" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y243" s="4">
         <v>0.7</v>
@@ -21636,7 +21636,7 @@
         <v>564</v>
       </c>
       <c r="X244" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y244" s="4">
         <v>0.7</v>
@@ -21713,7 +21713,7 @@
         <v>564</v>
       </c>
       <c r="X245" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y245" s="4">
         <v>0.7</v>
@@ -21790,7 +21790,7 @@
         <v>564</v>
       </c>
       <c r="X246" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y246" s="4">
         <v>0.7</v>
@@ -21867,7 +21867,7 @@
         <v>564</v>
       </c>
       <c r="X247" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y247" s="4">
         <v>0.7</v>
@@ -21944,7 +21944,7 @@
         <v>564</v>
       </c>
       <c r="X248" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y248" s="4">
         <v>0.7</v>
@@ -22021,7 +22021,7 @@
         <v>564</v>
       </c>
       <c r="X249" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y249" s="4">
         <v>0.7</v>
@@ -22098,7 +22098,7 @@
         <v>564</v>
       </c>
       <c r="X250" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y250" s="4">
         <v>0.7</v>
@@ -22175,7 +22175,7 @@
         <v>564</v>
       </c>
       <c r="X251" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y251" s="4">
         <v>0.7</v>
@@ -22252,7 +22252,7 @@
         <v>564</v>
       </c>
       <c r="X252" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y252" s="4">
         <v>0.7</v>
@@ -22329,7 +22329,7 @@
         <v>564</v>
       </c>
       <c r="X253" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y253" s="4">
         <v>0.7</v>
@@ -22406,7 +22406,7 @@
         <v>564</v>
       </c>
       <c r="X254" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y254" s="4">
         <v>0.7</v>
@@ -22483,7 +22483,7 @@
         <v>564</v>
       </c>
       <c r="X255" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y255" s="4">
         <v>0.7</v>
@@ -22560,7 +22560,7 @@
         <v>564</v>
       </c>
       <c r="X256" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y256" s="4">
         <v>0.7</v>
@@ -22637,7 +22637,7 @@
         <v>564</v>
       </c>
       <c r="X257" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y257" s="4">
         <v>0.7</v>
@@ -22714,7 +22714,7 @@
         <v>564</v>
       </c>
       <c r="X258" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y258" s="4">
         <v>0.7</v>
@@ -22791,7 +22791,7 @@
         <v>564</v>
       </c>
       <c r="X259" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y259" s="4">
         <v>0.7</v>
@@ -22868,7 +22868,7 @@
         <v>564</v>
       </c>
       <c r="X260" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y260" s="4">
         <v>0.7</v>
@@ -22945,7 +22945,7 @@
         <v>564</v>
       </c>
       <c r="X261" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y261" s="4">
         <v>0.7</v>
@@ -23022,7 +23022,7 @@
         <v>564</v>
       </c>
       <c r="X262" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y262" s="4">
         <v>0.7</v>
@@ -23099,7 +23099,7 @@
         <v>564</v>
       </c>
       <c r="X263" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y263" s="4">
         <v>0.7</v>
@@ -23176,7 +23176,7 @@
         <v>564</v>
       </c>
       <c r="X264" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y264" s="4">
         <v>0.7</v>
@@ -23253,7 +23253,7 @@
         <v>564</v>
       </c>
       <c r="X265" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y265" s="4">
         <v>0.7</v>
@@ -23330,7 +23330,7 @@
         <v>564</v>
       </c>
       <c r="X266" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y266" s="4">
         <v>0.7</v>
@@ -23407,7 +23407,7 @@
         <v>564</v>
       </c>
       <c r="X267" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y267" s="4">
         <v>0.7</v>
@@ -23484,7 +23484,7 @@
         <v>564</v>
       </c>
       <c r="X268" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y268" s="4">
         <v>0.7</v>
@@ -23561,7 +23561,7 @@
         <v>564</v>
       </c>
       <c r="X269" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y269" s="4">
         <v>0.7</v>
@@ -23638,7 +23638,7 @@
         <v>564</v>
       </c>
       <c r="X270" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y270" s="4">
         <v>0.7</v>
@@ -23715,7 +23715,7 @@
         <v>564</v>
       </c>
       <c r="X271" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y271" s="4">
         <v>0.7</v>
@@ -23792,7 +23792,7 @@
         <v>564</v>
       </c>
       <c r="X272" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y272" s="4">
         <v>0.7</v>
@@ -23869,7 +23869,7 @@
         <v>564</v>
       </c>
       <c r="X273" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y273" s="4">
         <v>0.7</v>
@@ -23946,7 +23946,7 @@
         <v>564</v>
       </c>
       <c r="X274" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y274" s="4">
         <v>0.7</v>
@@ -24023,7 +24023,7 @@
         <v>564</v>
       </c>
       <c r="X275" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y275" s="4">
         <v>0.7</v>
@@ -24100,7 +24100,7 @@
         <v>564</v>
       </c>
       <c r="X276" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y276" s="4">
         <v>0.7</v>
@@ -24177,7 +24177,7 @@
         <v>564</v>
       </c>
       <c r="X277" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y277" s="4">
         <v>0.7</v>
@@ -24254,7 +24254,7 @@
         <v>564</v>
       </c>
       <c r="X278" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y278" s="4">
         <v>0.7</v>
@@ -24331,7 +24331,7 @@
         <v>564</v>
       </c>
       <c r="X279" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y279" s="4">
         <v>0.7</v>
@@ -24408,7 +24408,7 @@
         <v>564</v>
       </c>
       <c r="X280" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y280" s="4">
         <v>0.7</v>
@@ -24485,7 +24485,7 @@
         <v>564</v>
       </c>
       <c r="X281" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y281" s="4">
         <v>0.7</v>
@@ -24562,7 +24562,7 @@
         <v>564</v>
       </c>
       <c r="X282" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y282" s="4">
         <v>0.7</v>
@@ -24639,7 +24639,7 @@
         <v>564</v>
       </c>
       <c r="X283" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y283" s="4">
         <v>0.7</v>
@@ -24716,7 +24716,7 @@
         <v>564</v>
       </c>
       <c r="X284" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y284" s="4">
         <v>0.7</v>
@@ -24793,7 +24793,7 @@
         <v>564</v>
       </c>
       <c r="X285" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y285" s="4">
         <v>0.7</v>
@@ -24870,7 +24870,7 @@
         <v>564</v>
       </c>
       <c r="X286" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y286" s="4">
         <v>0.7</v>
@@ -24947,7 +24947,7 @@
         <v>564</v>
       </c>
       <c r="X287" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y287" s="4">
         <v>0.7</v>
@@ -25024,7 +25024,7 @@
         <v>564</v>
       </c>
       <c r="X288" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y288" s="4">
         <v>0.7</v>
@@ -25101,7 +25101,7 @@
         <v>564</v>
       </c>
       <c r="X289" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y289" s="4">
         <v>0.7</v>
@@ -25178,7 +25178,7 @@
         <v>564</v>
       </c>
       <c r="X290" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y290" s="4">
         <v>0.7</v>
@@ -25255,7 +25255,7 @@
         <v>564</v>
       </c>
       <c r="X291" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y291" s="4">
         <v>0.7</v>
@@ -25332,7 +25332,7 @@
         <v>564</v>
       </c>
       <c r="X292" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y292" s="4">
         <v>0.7</v>
@@ -25409,7 +25409,7 @@
         <v>564</v>
       </c>
       <c r="X293" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y293" s="4">
         <v>0.7</v>
@@ -25486,7 +25486,7 @@
         <v>564</v>
       </c>
       <c r="X294" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y294" s="4">
         <v>0.7</v>
@@ -25563,7 +25563,7 @@
         <v>564</v>
       </c>
       <c r="X295" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y295" s="4">
         <v>0.7</v>
@@ -25640,7 +25640,7 @@
         <v>564</v>
       </c>
       <c r="X296" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y296" s="4">
         <v>0.7</v>
@@ -25717,7 +25717,7 @@
         <v>564</v>
       </c>
       <c r="X297" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y297" s="4">
         <v>0.7</v>
@@ -25794,7 +25794,7 @@
         <v>564</v>
       </c>
       <c r="X298" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y298" s="4">
         <v>0.7</v>
@@ -25871,7 +25871,7 @@
         <v>564</v>
       </c>
       <c r="X299" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y299" s="4">
         <v>0.7</v>
@@ -25948,7 +25948,7 @@
         <v>564</v>
       </c>
       <c r="X300" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y300" s="4">
         <v>0.7</v>
@@ -26025,7 +26025,7 @@
         <v>564</v>
       </c>
       <c r="X301" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y301" s="4">
         <v>0.7</v>
@@ -26102,7 +26102,7 @@
         <v>564</v>
       </c>
       <c r="X302" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y302" s="4">
         <v>0.7</v>
@@ -26179,7 +26179,7 @@
         <v>564</v>
       </c>
       <c r="X303" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y303" s="4">
         <v>0.7</v>
@@ -26256,7 +26256,7 @@
         <v>564</v>
       </c>
       <c r="X304" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y304" s="4">
         <v>0.7</v>
@@ -26333,7 +26333,7 @@
         <v>564</v>
       </c>
       <c r="X305" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y305" s="4">
         <v>0.7</v>
@@ -26410,7 +26410,7 @@
         <v>564</v>
       </c>
       <c r="X306" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y306" s="4">
         <v>0.7</v>
@@ -26487,7 +26487,7 @@
         <v>564</v>
       </c>
       <c r="X307" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y307" s="4">
         <v>0.7</v>
@@ -26564,7 +26564,7 @@
         <v>564</v>
       </c>
       <c r="X308" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y308" s="4">
         <v>0.7</v>
@@ -26641,7 +26641,7 @@
         <v>564</v>
       </c>
       <c r="X309" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y309" s="4">
         <v>0.7</v>
@@ -26718,7 +26718,7 @@
         <v>564</v>
       </c>
       <c r="X310" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y310" s="4">
         <v>0.7</v>
@@ -26795,7 +26795,7 @@
         <v>564</v>
       </c>
       <c r="X311" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y311" s="4">
         <v>0.7</v>
@@ -26872,7 +26872,7 @@
         <v>564</v>
       </c>
       <c r="X312" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y312" s="4">
         <v>0.7</v>
@@ -26949,7 +26949,7 @@
         <v>564</v>
       </c>
       <c r="X313" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y313" s="4">
         <v>0.7</v>
@@ -27026,7 +27026,7 @@
         <v>564</v>
       </c>
       <c r="X314" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y314" s="4">
         <v>0.7</v>
@@ -27103,7 +27103,7 @@
         <v>564</v>
       </c>
       <c r="X315" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y315" s="4">
         <v>0.7</v>
@@ -27180,7 +27180,7 @@
         <v>564</v>
       </c>
       <c r="X316" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y316" s="4">
         <v>0.7</v>
@@ -27257,7 +27257,7 @@
         <v>564</v>
       </c>
       <c r="X317" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y317" s="4">
         <v>0.7</v>
@@ -27334,7 +27334,7 @@
         <v>564</v>
       </c>
       <c r="X318" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y318" s="4">
         <v>0.7</v>
@@ -27411,7 +27411,7 @@
         <v>564</v>
       </c>
       <c r="X319" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y319" s="4">
         <v>0.7</v>
@@ -27488,7 +27488,7 @@
         <v>564</v>
       </c>
       <c r="X320" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y320" s="4">
         <v>0.7</v>
@@ -27565,7 +27565,7 @@
         <v>564</v>
       </c>
       <c r="X321" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y321" s="4">
         <v>0.7</v>
@@ -27642,7 +27642,7 @@
         <v>564</v>
       </c>
       <c r="X322" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y322" s="4">
         <v>0.7</v>
@@ -27719,7 +27719,7 @@
         <v>564</v>
       </c>
       <c r="X323" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y323" s="4">
         <v>0.7</v>
@@ -27796,7 +27796,7 @@
         <v>564</v>
       </c>
       <c r="X324" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y324" s="4">
         <v>0.7</v>
@@ -27873,7 +27873,7 @@
         <v>564</v>
       </c>
       <c r="X325" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y325" s="4">
         <v>0.7</v>
@@ -27950,7 +27950,7 @@
         <v>564</v>
       </c>
       <c r="X326" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y326" s="4">
         <v>0.7</v>
@@ -28027,7 +28027,7 @@
         <v>564</v>
       </c>
       <c r="X327" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y327" s="4">
         <v>0.7</v>
@@ -28104,7 +28104,7 @@
         <v>564</v>
       </c>
       <c r="X328" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y328" s="4">
         <v>0.7</v>
@@ -28181,7 +28181,7 @@
         <v>564</v>
       </c>
       <c r="X329" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y329" s="4">
         <v>0.7</v>
@@ -28258,7 +28258,7 @@
         <v>564</v>
       </c>
       <c r="X330" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y330" s="4">
         <v>0.7</v>
@@ -28335,7 +28335,7 @@
         <v>564</v>
       </c>
       <c r="X331" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y331" s="4">
         <v>0.7</v>
@@ -28412,7 +28412,7 @@
         <v>564</v>
       </c>
       <c r="X332" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y332" s="4">
         <v>0.7</v>
@@ -28489,7 +28489,7 @@
         <v>564</v>
       </c>
       <c r="X333" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y333" s="4">
         <v>0.7</v>
@@ -28566,7 +28566,7 @@
         <v>564</v>
       </c>
       <c r="X334" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y334" s="4">
         <v>0.7</v>
@@ -28643,7 +28643,7 @@
         <v>564</v>
       </c>
       <c r="X335" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y335" s="4">
         <v>0.7</v>
@@ -28720,7 +28720,7 @@
         <v>564</v>
       </c>
       <c r="X336" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y336" s="4">
         <v>0.7</v>
@@ -28797,7 +28797,7 @@
         <v>564</v>
       </c>
       <c r="X337" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y337" s="4">
         <v>0.7</v>
@@ -28874,7 +28874,7 @@
         <v>564</v>
       </c>
       <c r="X338" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y338" s="4">
         <v>0.7</v>
@@ -28951,7 +28951,7 @@
         <v>564</v>
       </c>
       <c r="X339" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y339" s="4">
         <v>0.7</v>
@@ -29028,7 +29028,7 @@
         <v>564</v>
       </c>
       <c r="X340" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y340" s="4">
         <v>0.7</v>
@@ -29105,7 +29105,7 @@
         <v>564</v>
       </c>
       <c r="X341" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y341" s="4">
         <v>0.7</v>
@@ -29182,7 +29182,7 @@
         <v>564</v>
       </c>
       <c r="X342" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y342" s="4">
         <v>0.7</v>
@@ -29259,7 +29259,7 @@
         <v>564</v>
       </c>
       <c r="X343" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y343" s="4">
         <v>0.7</v>
@@ -29336,7 +29336,7 @@
         <v>564</v>
       </c>
       <c r="X344" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y344" s="4">
         <v>0.7</v>
@@ -29413,7 +29413,7 @@
         <v>564</v>
       </c>
       <c r="X345" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y345" s="4">
         <v>0.7</v>
@@ -29490,7 +29490,7 @@
         <v>564</v>
       </c>
       <c r="X346" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y346" s="4">
         <v>0.7</v>
@@ -29567,7 +29567,7 @@
         <v>564</v>
       </c>
       <c r="X347" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y347" s="4">
         <v>0.7</v>
@@ -29644,7 +29644,7 @@
         <v>564</v>
       </c>
       <c r="X348" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y348" s="4">
         <v>0.7</v>
@@ -29721,7 +29721,7 @@
         <v>564</v>
       </c>
       <c r="X349" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y349" s="4">
         <v>0.7</v>
@@ -29798,7 +29798,7 @@
         <v>564</v>
       </c>
       <c r="X350" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y350" s="4">
         <v>0.7</v>
@@ -29875,7 +29875,7 @@
         <v>564</v>
       </c>
       <c r="X351" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y351" s="4">
         <v>0.7</v>
@@ -29952,7 +29952,7 @@
         <v>564</v>
       </c>
       <c r="X352" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y352" s="4">
         <v>0.7</v>
@@ -30029,7 +30029,7 @@
         <v>564</v>
       </c>
       <c r="X353" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y353" s="4">
         <v>0.7</v>
@@ -30106,7 +30106,7 @@
         <v>564</v>
       </c>
       <c r="X354" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y354" s="4">
         <v>0.7</v>
@@ -30183,7 +30183,7 @@
         <v>564</v>
       </c>
       <c r="X355" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y355" s="4">
         <v>0.7</v>
@@ -30260,7 +30260,7 @@
         <v>564</v>
       </c>
       <c r="X356" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y356" s="4">
         <v>0.7</v>
@@ -30337,7 +30337,7 @@
         <v>564</v>
       </c>
       <c r="X357" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y357" s="4">
         <v>0.7</v>
@@ -30414,7 +30414,7 @@
         <v>564</v>
       </c>
       <c r="X358" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y358" s="4">
         <v>0.7</v>
@@ -30491,7 +30491,7 @@
         <v>564</v>
       </c>
       <c r="X359" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y359" s="4">
         <v>0.7</v>
@@ -30568,7 +30568,7 @@
         <v>564</v>
       </c>
       <c r="X360" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y360" s="4">
         <v>0.7</v>
@@ -30645,7 +30645,7 @@
         <v>564</v>
       </c>
       <c r="X361" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y361" s="4">
         <v>0.7</v>
@@ -30722,7 +30722,7 @@
         <v>564</v>
       </c>
       <c r="X362" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y362" s="4">
         <v>0.7</v>
@@ -30799,7 +30799,7 @@
         <v>564</v>
       </c>
       <c r="X363" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y363" s="4">
         <v>0.7</v>
@@ -30876,7 +30876,7 @@
         <v>564</v>
       </c>
       <c r="X364" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y364" s="4">
         <v>0.7</v>
@@ -30953,7 +30953,7 @@
         <v>564</v>
       </c>
       <c r="X365" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y365" s="4">
         <v>0.7</v>
@@ -31030,7 +31030,7 @@
         <v>564</v>
       </c>
       <c r="X366" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y366" s="4">
         <v>0.7</v>
@@ -31107,7 +31107,7 @@
         <v>564</v>
       </c>
       <c r="X367" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y367" s="4">
         <v>0.7</v>
@@ -31184,7 +31184,7 @@
         <v>564</v>
       </c>
       <c r="X368" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y368" s="4">
         <v>0.7</v>
@@ -31261,7 +31261,7 @@
         <v>564</v>
       </c>
       <c r="X369" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y369" s="4">
         <v>0.7</v>
@@ -31338,7 +31338,7 @@
         <v>564</v>
       </c>
       <c r="X370" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y370" s="4">
         <v>0.7</v>
@@ -31415,7 +31415,7 @@
         <v>564</v>
       </c>
       <c r="X371" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y371" s="4">
         <v>0.7</v>
@@ -31492,7 +31492,7 @@
         <v>564</v>
       </c>
       <c r="X372" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y372" s="4">
         <v>0.7</v>
@@ -31569,7 +31569,7 @@
         <v>564</v>
       </c>
       <c r="X373" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y373" s="4">
         <v>0.7</v>
@@ -31646,7 +31646,7 @@
         <v>564</v>
       </c>
       <c r="X374" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y374" s="4">
         <v>0.7</v>
@@ -31723,7 +31723,7 @@
         <v>564</v>
       </c>
       <c r="X375" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y375" s="4">
         <v>0.7</v>
@@ -31800,7 +31800,7 @@
         <v>564</v>
       </c>
       <c r="X376" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y376" s="4">
         <v>0.7</v>
@@ -31877,7 +31877,7 @@
         <v>564</v>
       </c>
       <c r="X377" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y377" s="4">
         <v>0.7</v>
@@ -31954,7 +31954,7 @@
         <v>564</v>
       </c>
       <c r="X378" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y378" s="4">
         <v>0.7</v>
@@ -32031,7 +32031,7 @@
         <v>564</v>
       </c>
       <c r="X379" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y379" s="4">
         <v>0.7</v>
@@ -32108,7 +32108,7 @@
         <v>564</v>
       </c>
       <c r="X380" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y380" s="4">
         <v>0.7</v>
@@ -32185,7 +32185,7 @@
         <v>564</v>
       </c>
       <c r="X381" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y381" s="4">
         <v>0.7</v>
@@ -32262,7 +32262,7 @@
         <v>564</v>
       </c>
       <c r="X382" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y382" s="4">
         <v>0.7</v>
@@ -32339,7 +32339,7 @@
         <v>564</v>
       </c>
       <c r="X383" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y383" s="4">
         <v>0.7</v>
@@ -32416,7 +32416,7 @@
         <v>564</v>
       </c>
       <c r="X384" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y384" s="4">
         <v>0.7</v>
@@ -32493,7 +32493,7 @@
         <v>564</v>
       </c>
       <c r="X385" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y385" s="4">
         <v>0.7</v>
@@ -32570,7 +32570,7 @@
         <v>564</v>
       </c>
       <c r="X386" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y386" s="4">
         <v>0.7</v>
@@ -32647,7 +32647,7 @@
         <v>564</v>
       </c>
       <c r="X387" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y387" s="4">
         <v>0.7</v>
@@ -32724,7 +32724,7 @@
         <v>564</v>
       </c>
       <c r="X388" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y388" s="4">
         <v>0.7</v>
@@ -32801,7 +32801,7 @@
         <v>564</v>
       </c>
       <c r="X389" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y389" s="4">
         <v>0.7</v>
@@ -32878,7 +32878,7 @@
         <v>564</v>
       </c>
       <c r="X390" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y390" s="4">
         <v>0.7</v>
@@ -32955,7 +32955,7 @@
         <v>564</v>
       </c>
       <c r="X391" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y391" s="4">
         <v>0.7</v>
@@ -33032,7 +33032,7 @@
         <v>564</v>
       </c>
       <c r="X392" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y392" s="4">
         <v>0.7</v>
@@ -33109,7 +33109,7 @@
         <v>564</v>
       </c>
       <c r="X393" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y393" s="4">
         <v>0.7</v>
@@ -33186,7 +33186,7 @@
         <v>564</v>
       </c>
       <c r="X394" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y394" s="4">
         <v>0.7</v>
@@ -33263,7 +33263,7 @@
         <v>564</v>
       </c>
       <c r="X395" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y395" s="4">
         <v>0.7</v>
@@ -33340,7 +33340,7 @@
         <v>564</v>
       </c>
       <c r="X396" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y396" s="4">
         <v>0.7</v>
@@ -33417,7 +33417,7 @@
         <v>564</v>
       </c>
       <c r="X397" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y397" s="4">
         <v>0.7</v>
@@ -33494,7 +33494,7 @@
         <v>564</v>
       </c>
       <c r="X398" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y398" s="4">
         <v>0.7</v>
@@ -33571,7 +33571,7 @@
         <v>564</v>
       </c>
       <c r="X399" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y399" s="4">
         <v>0.7</v>
@@ -33648,7 +33648,7 @@
         <v>564</v>
       </c>
       <c r="X400" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y400" s="4">
         <v>0.7</v>
@@ -33725,7 +33725,7 @@
         <v>564</v>
       </c>
       <c r="X401" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y401" s="4">
         <v>0.7</v>
@@ -33802,7 +33802,7 @@
         <v>564</v>
       </c>
       <c r="X402" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y402" s="4">
         <v>0.7</v>
@@ -33879,7 +33879,7 @@
         <v>564</v>
       </c>
       <c r="X403" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y403" s="4">
         <v>0.7</v>
@@ -33956,7 +33956,7 @@
         <v>564</v>
       </c>
       <c r="X404" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y404" s="4">
         <v>0.7</v>
@@ -34033,7 +34033,7 @@
         <v>564</v>
       </c>
       <c r="X405" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y405" s="4">
         <v>0.7</v>
@@ -34110,7 +34110,7 @@
         <v>564</v>
       </c>
       <c r="X406" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y406" s="4">
         <v>0.7</v>
@@ -34187,7 +34187,7 @@
         <v>564</v>
       </c>
       <c r="X407" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y407" s="4">
         <v>0.7</v>
@@ -34264,7 +34264,7 @@
         <v>564</v>
       </c>
       <c r="X408" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y408" s="4">
         <v>0.7</v>
@@ -34341,7 +34341,7 @@
         <v>564</v>
       </c>
       <c r="X409" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y409" s="4">
         <v>0.7</v>
@@ -34418,7 +34418,7 @@
         <v>564</v>
       </c>
       <c r="X410" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y410" s="4">
         <v>0.7</v>
@@ -34495,7 +34495,7 @@
         <v>564</v>
       </c>
       <c r="X411" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y411" s="4">
         <v>0.7</v>
@@ -34572,7 +34572,7 @@
         <v>564</v>
       </c>
       <c r="X412" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y412" s="4">
         <v>0.7</v>
@@ -34649,7 +34649,7 @@
         <v>564</v>
       </c>
       <c r="X413" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y413" s="4">
         <v>0.7</v>
@@ -34726,7 +34726,7 @@
         <v>564</v>
       </c>
       <c r="X414" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y414" s="4">
         <v>0.7</v>
@@ -34803,7 +34803,7 @@
         <v>564</v>
       </c>
       <c r="X415" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y415" s="4">
         <v>0.7</v>
@@ -34880,7 +34880,7 @@
         <v>564</v>
       </c>
       <c r="X416" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y416" s="4">
         <v>0.7</v>
@@ -34957,7 +34957,7 @@
         <v>564</v>
       </c>
       <c r="X417" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y417" s="4">
         <v>0.7</v>
@@ -35034,7 +35034,7 @@
         <v>564</v>
       </c>
       <c r="X418" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y418" s="4">
         <v>0.7</v>
@@ -35111,7 +35111,7 @@
         <v>564</v>
       </c>
       <c r="X419" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y419" s="4">
         <v>0.7</v>
@@ -35188,7 +35188,7 @@
         <v>564</v>
       </c>
       <c r="X420" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y420" s="4">
         <v>0.7</v>
@@ -35265,7 +35265,7 @@
         <v>564</v>
       </c>
       <c r="X421" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y421" s="4">
         <v>0.7</v>
@@ -35342,7 +35342,7 @@
         <v>564</v>
       </c>
       <c r="X422" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y422" s="4">
         <v>0.7</v>
@@ -35419,7 +35419,7 @@
         <v>564</v>
       </c>
       <c r="X423" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y423" s="4">
         <v>0.7</v>
@@ -35496,7 +35496,7 @@
         <v>564</v>
       </c>
       <c r="X424" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y424" s="4">
         <v>0.7</v>
@@ -35573,7 +35573,7 @@
         <v>564</v>
       </c>
       <c r="X425" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y425" s="4">
         <v>0.7</v>
@@ -35650,7 +35650,7 @@
         <v>564</v>
       </c>
       <c r="X426" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y426" s="4">
         <v>0.7</v>
@@ -35727,7 +35727,7 @@
         <v>564</v>
       </c>
       <c r="X427" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y427" s="4">
         <v>0.7</v>
@@ -35804,7 +35804,7 @@
         <v>564</v>
       </c>
       <c r="X428" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y428" s="4">
         <v>0.7</v>
@@ -35881,7 +35881,7 @@
         <v>564</v>
       </c>
       <c r="X429" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y429" s="4">
         <v>0.7</v>
@@ -35958,7 +35958,7 @@
         <v>564</v>
       </c>
       <c r="X430" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y430" s="4">
         <v>0.7</v>
@@ -36035,7 +36035,7 @@
         <v>564</v>
       </c>
       <c r="X431" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y431" s="4">
         <v>0.7</v>
@@ -36112,7 +36112,7 @@
         <v>564</v>
       </c>
       <c r="X432" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y432" s="4">
         <v>0.7</v>
@@ -36189,7 +36189,7 @@
         <v>564</v>
       </c>
       <c r="X433" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y433" s="4">
         <v>0.7</v>
@@ -36266,7 +36266,7 @@
         <v>564</v>
       </c>
       <c r="X434" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y434" s="4">
         <v>0.7</v>
@@ -36343,7 +36343,7 @@
         <v>564</v>
       </c>
       <c r="X435" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y435" s="4">
         <v>0.7</v>
@@ -36420,7 +36420,7 @@
         <v>564</v>
       </c>
       <c r="X436" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y436" s="4">
         <v>0.7</v>
@@ -36497,7 +36497,7 @@
         <v>564</v>
       </c>
       <c r="X437" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y437" s="4">
         <v>0.7</v>
@@ -36574,7 +36574,7 @@
         <v>564</v>
       </c>
       <c r="X438" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y438" s="4">
         <v>0.7</v>
@@ -36651,7 +36651,7 @@
         <v>564</v>
       </c>
       <c r="X439" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y439" s="4">
         <v>0.7</v>
@@ -36728,7 +36728,7 @@
         <v>564</v>
       </c>
       <c r="X440" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y440" s="4">
         <v>0.7</v>
@@ -36805,7 +36805,7 @@
         <v>564</v>
       </c>
       <c r="X441" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y441" s="4">
         <v>0.7</v>
@@ -36882,7 +36882,7 @@
         <v>564</v>
       </c>
       <c r="X442" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y442" s="4">
         <v>0.7</v>
@@ -36959,7 +36959,7 @@
         <v>564</v>
       </c>
       <c r="X443" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y443" s="4">
         <v>0.7</v>
@@ -37036,7 +37036,7 @@
         <v>564</v>
       </c>
       <c r="X444" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y444" s="4">
         <v>0.7</v>
@@ -37113,7 +37113,7 @@
         <v>564</v>
       </c>
       <c r="X445" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y445" s="4">
         <v>0.7</v>
@@ -37190,7 +37190,7 @@
         <v>564</v>
       </c>
       <c r="X446" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y446" s="4">
         <v>0.7</v>
@@ -37267,7 +37267,7 @@
         <v>564</v>
       </c>
       <c r="X447" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y447" s="4">
         <v>0.7</v>
@@ -37344,7 +37344,7 @@
         <v>564</v>
       </c>
       <c r="X448" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y448" s="4">
         <v>0.7</v>
@@ -37421,7 +37421,7 @@
         <v>564</v>
       </c>
       <c r="X449" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y449" s="4">
         <v>0.7</v>
@@ -37498,7 +37498,7 @@
         <v>564</v>
       </c>
       <c r="X450" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y450" s="4">
         <v>0.7</v>
@@ -37575,7 +37575,7 @@
         <v>564</v>
       </c>
       <c r="X451" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y451" s="4">
         <v>0.7</v>
@@ -37652,7 +37652,7 @@
         <v>564</v>
       </c>
       <c r="X452" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y452" s="4">
         <v>0.7</v>
@@ -37729,7 +37729,7 @@
         <v>564</v>
       </c>
       <c r="X453" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y453" s="4">
         <v>0.7</v>
@@ -37806,7 +37806,7 @@
         <v>564</v>
       </c>
       <c r="X454" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y454" s="4">
         <v>0.7</v>
@@ -37883,7 +37883,7 @@
         <v>564</v>
       </c>
       <c r="X455" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y455" s="4">
         <v>0.7</v>
@@ -37960,7 +37960,7 @@
         <v>564</v>
       </c>
       <c r="X456" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y456" s="4">
         <v>0.7</v>
@@ -38037,7 +38037,7 @@
         <v>564</v>
       </c>
       <c r="X457" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y457" s="4">
         <v>0.7</v>
@@ -38114,7 +38114,7 @@
         <v>564</v>
       </c>
       <c r="X458" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y458" s="4">
         <v>0.7</v>
@@ -38191,7 +38191,7 @@
         <v>564</v>
       </c>
       <c r="X459" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y459" s="4">
         <v>0.7</v>
@@ -38268,7 +38268,7 @@
         <v>564</v>
       </c>
       <c r="X460" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y460" s="4">
         <v>0.7</v>
@@ -38345,7 +38345,7 @@
         <v>564</v>
       </c>
       <c r="X461" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y461" s="4">
         <v>0.7</v>
@@ -38422,7 +38422,7 @@
         <v>564</v>
       </c>
       <c r="X462" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y462" s="4">
         <v>0.7</v>
@@ -38499,7 +38499,7 @@
         <v>564</v>
       </c>
       <c r="X463" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y463" s="4">
         <v>0.7</v>
@@ -38576,7 +38576,7 @@
         <v>564</v>
       </c>
       <c r="X464" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y464" s="4">
         <v>0.7</v>
@@ -38653,7 +38653,7 @@
         <v>564</v>
       </c>
       <c r="X465" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y465" s="4">
         <v>0.7</v>
@@ -38730,7 +38730,7 @@
         <v>564</v>
       </c>
       <c r="X466" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y466" s="4">
         <v>0.7</v>
@@ -38807,7 +38807,7 @@
         <v>564</v>
       </c>
       <c r="X467" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y467" s="4">
         <v>0.7</v>
@@ -38884,7 +38884,7 @@
         <v>564</v>
       </c>
       <c r="X468" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y468" s="4">
         <v>0.7</v>
@@ -38961,7 +38961,7 @@
         <v>564</v>
       </c>
       <c r="X469" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y469" s="4">
         <v>0.7</v>
@@ -39038,7 +39038,7 @@
         <v>564</v>
       </c>
       <c r="X470" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y470" s="4">
         <v>0.7</v>
@@ -39115,7 +39115,7 @@
         <v>564</v>
       </c>
       <c r="X471" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y471" s="4">
         <v>0.7</v>
@@ -39192,7 +39192,7 @@
         <v>564</v>
       </c>
       <c r="X472" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y472" s="4">
         <v>0.7</v>
@@ -39269,7 +39269,7 @@
         <v>564</v>
       </c>
       <c r="X473" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y473" s="4">
         <v>0.7</v>
@@ -39346,7 +39346,7 @@
         <v>564</v>
       </c>
       <c r="X474" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y474" s="4">
         <v>0.7</v>
@@ -39423,7 +39423,7 @@
         <v>564</v>
       </c>
       <c r="X475" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y475" s="4">
         <v>0.7</v>
@@ -39500,7 +39500,7 @@
         <v>564</v>
       </c>
       <c r="X476" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y476" s="4">
         <v>0.7</v>
@@ -39577,7 +39577,7 @@
         <v>564</v>
       </c>
       <c r="X477" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y477" s="4">
         <v>0.7</v>
@@ -39654,7 +39654,7 @@
         <v>564</v>
       </c>
       <c r="X478" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y478" s="4">
         <v>0.7</v>
@@ -39731,7 +39731,7 @@
         <v>564</v>
       </c>
       <c r="X479" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y479" s="4">
         <v>0.7</v>
@@ -39808,7 +39808,7 @@
         <v>564</v>
       </c>
       <c r="X480" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y480" s="4">
         <v>0.7</v>
@@ -39885,7 +39885,7 @@
         <v>564</v>
       </c>
       <c r="X481" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y481" s="4">
         <v>0.7</v>
@@ -39962,7 +39962,7 @@
         <v>564</v>
       </c>
       <c r="X482" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y482" s="4">
         <v>0.7</v>
@@ -40039,7 +40039,7 @@
         <v>564</v>
       </c>
       <c r="X483" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y483" s="4">
         <v>0.7</v>
@@ -40116,7 +40116,7 @@
         <v>564</v>
       </c>
       <c r="X484" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y484" s="4">
         <v>0.7</v>
@@ -40193,7 +40193,7 @@
         <v>564</v>
       </c>
       <c r="X485" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y485" s="4">
         <v>0.7</v>
@@ -40270,7 +40270,7 @@
         <v>564</v>
       </c>
       <c r="X486" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y486" s="4">
         <v>0.7</v>
@@ -40347,7 +40347,7 @@
         <v>564</v>
       </c>
       <c r="X487" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y487" s="4">
         <v>0.7</v>
@@ -40424,7 +40424,7 @@
         <v>564</v>
       </c>
       <c r="X488" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y488" s="4">
         <v>0.7</v>
@@ -40501,7 +40501,7 @@
         <v>564</v>
       </c>
       <c r="X489" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y489" s="4">
         <v>0.7</v>
@@ -40578,7 +40578,7 @@
         <v>564</v>
       </c>
       <c r="X490" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y490" s="4">
         <v>0.7</v>
@@ -40655,7 +40655,7 @@
         <v>564</v>
       </c>
       <c r="X491" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y491" s="4">
         <v>0.7</v>
@@ -40732,7 +40732,7 @@
         <v>564</v>
       </c>
       <c r="X492" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y492" s="4">
         <v>0.7</v>
@@ -40809,7 +40809,7 @@
         <v>564</v>
       </c>
       <c r="X493" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y493" s="4">
         <v>0.7</v>
@@ -40886,7 +40886,7 @@
         <v>564</v>
       </c>
       <c r="X494" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y494" s="4">
         <v>0.7</v>
@@ -40963,7 +40963,7 @@
         <v>564</v>
       </c>
       <c r="X495" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y495" s="4">
         <v>0.7</v>
@@ -41040,7 +41040,7 @@
         <v>564</v>
       </c>
       <c r="X496" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y496" s="4">
         <v>0.7</v>
@@ -41117,7 +41117,7 @@
         <v>564</v>
       </c>
       <c r="X497" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y497" s="4">
         <v>0.7</v>
@@ -41194,7 +41194,7 @@
         <v>564</v>
       </c>
       <c r="X498" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y498" s="4">
         <v>0.7</v>
@@ -41271,7 +41271,7 @@
         <v>564</v>
       </c>
       <c r="X499" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y499" s="4">
         <v>0.7</v>
@@ -41348,7 +41348,7 @@
         <v>564</v>
       </c>
       <c r="X500" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y500" s="4">
         <v>0.7</v>
@@ -41425,7 +41425,7 @@
         <v>564</v>
       </c>
       <c r="X501" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y501" s="4">
         <v>0.7</v>
@@ -41502,7 +41502,7 @@
         <v>564</v>
       </c>
       <c r="X502" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y502" s="4">
         <v>0.7</v>
@@ -41579,7 +41579,7 @@
         <v>564</v>
       </c>
       <c r="X503" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y503" s="4">
         <v>0.7</v>
@@ -41656,7 +41656,7 @@
         <v>564</v>
       </c>
       <c r="X504" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y504" s="4">
         <v>0.7</v>
@@ -41733,7 +41733,7 @@
         <v>564</v>
       </c>
       <c r="X505" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y505" s="4">
         <v>0.7</v>
@@ -41810,7 +41810,7 @@
         <v>564</v>
       </c>
       <c r="X506" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y506" s="4">
         <v>0.7</v>
@@ -41887,7 +41887,7 @@
         <v>564</v>
       </c>
       <c r="X507" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y507" s="4">
         <v>0.7</v>
@@ -41964,7 +41964,7 @@
         <v>564</v>
       </c>
       <c r="X508" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y508" s="4">
         <v>0.7</v>
@@ -42041,7 +42041,7 @@
         <v>564</v>
       </c>
       <c r="X509" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y509" s="4">
         <v>0.7</v>
@@ -42118,7 +42118,7 @@
         <v>564</v>
       </c>
       <c r="X510" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y510" s="4">
         <v>0.7</v>
@@ -42195,7 +42195,7 @@
         <v>564</v>
       </c>
       <c r="X511" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y511" s="4">
         <v>0.7</v>
@@ -42272,7 +42272,7 @@
         <v>564</v>
       </c>
       <c r="X512" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y512" s="4">
         <v>0.7</v>
@@ -42349,7 +42349,7 @@
         <v>564</v>
       </c>
       <c r="X513" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y513" s="4">
         <v>0.7</v>
@@ -42426,7 +42426,7 @@
         <v>564</v>
       </c>
       <c r="X514" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y514" s="4">
         <v>0.7</v>
@@ -42503,7 +42503,7 @@
         <v>564</v>
       </c>
       <c r="X515" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y515" s="4">
         <v>0.7</v>
@@ -42580,7 +42580,7 @@
         <v>564</v>
       </c>
       <c r="X516" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y516" s="4">
         <v>0.7</v>
@@ -42657,7 +42657,7 @@
         <v>564</v>
       </c>
       <c r="X517" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y517" s="4">
         <v>0.7</v>
@@ -42734,7 +42734,7 @@
         <v>564</v>
       </c>
       <c r="X518" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y518" s="4">
         <v>0.7</v>
@@ -42811,7 +42811,7 @@
         <v>564</v>
       </c>
       <c r="X519" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y519" s="4">
         <v>0.7</v>
@@ -42888,7 +42888,7 @@
         <v>564</v>
       </c>
       <c r="X520" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y520" s="4">
         <v>0.7</v>
@@ -42965,7 +42965,7 @@
         <v>564</v>
       </c>
       <c r="X521" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y521" s="4">
         <v>0.7</v>
@@ -43042,7 +43042,7 @@
         <v>564</v>
       </c>
       <c r="X522" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y522" s="4">
         <v>0.7</v>
@@ -43119,7 +43119,7 @@
         <v>564</v>
       </c>
       <c r="X523" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y523" s="4">
         <v>0.7</v>
@@ -43196,7 +43196,7 @@
         <v>564</v>
       </c>
       <c r="X524" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y524" s="4">
         <v>0.7</v>
@@ -43273,7 +43273,7 @@
         <v>564</v>
       </c>
       <c r="X525" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y525" s="4">
         <v>0.7</v>
@@ -43350,7 +43350,7 @@
         <v>564</v>
       </c>
       <c r="X526" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y526" s="4">
         <v>0.7</v>
@@ -43427,7 +43427,7 @@
         <v>564</v>
       </c>
       <c r="X527" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y527" s="4">
         <v>0.7</v>
@@ -43504,7 +43504,7 @@
         <v>564</v>
       </c>
       <c r="X528" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y528" s="4">
         <v>0.7</v>
@@ -43581,7 +43581,7 @@
         <v>564</v>
       </c>
       <c r="X529" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y529" s="4">
         <v>0.7</v>
@@ -43658,7 +43658,7 @@
         <v>564</v>
       </c>
       <c r="X530" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y530" s="4">
         <v>0.7</v>
@@ -43735,7 +43735,7 @@
         <v>564</v>
       </c>
       <c r="X531" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y531" s="4">
         <v>0.7</v>
@@ -43812,7 +43812,7 @@
         <v>564</v>
       </c>
       <c r="X532" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y532" s="4">
         <v>0.7</v>
@@ -43889,7 +43889,7 @@
         <v>564</v>
       </c>
       <c r="X533" s="4">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Y533" s="4">
         <v>0.7</v>

--- a/ProjectFiles/HECO/PyDSS Settings/HP-VV-VW-R/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/HECO/PyDSS Settings/HP-VV-VW-R/pyControllerList/PV Controller.xlsx
@@ -2003,15 +2003,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2023,6 +2014,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2041,63 +2041,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2575,13 +2518,60 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2602,6 +2592,16 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2616,36 +2616,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3EAE046-7CB0-417F-82F6-A578A224525D}" name="Table1" displayName="Table1" ref="A2:AA533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3EAE046-7CB0-417F-82F6-A578A224525D}" name="Table1" displayName="Table1" ref="A2:AA533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A2:AA533" xr:uid="{3ACE7797-6FF3-43A0-BA50-C0B0AE930604}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{E1CD1FBD-A7ED-42A0-AF35-86775A261772}" name="Controlled PV" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AF4A7107-9C3C-4823-B3E7-ECB1147CA7DE}" name="Qcontrol" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{712A83DD-4F49-42E2-A3CC-AAA4941D8E93}" name="Pcontrol" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{F20023C9-30D5-4EC0-9B61-ED68616FAB45}" name="pf" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{0FC49E85-2C8F-4478-920E-D89536D6A11F}" name="pfMin" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{BC4DEAF8-6953-4CEF-99F2-FB425B9384AA}" name="pfMax" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{903CE101-1120-492A-9F9F-B0830D614388}" name="Pmin" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{C54AB87C-C309-4CAC-9FB8-429B54D662F5}" name="Pmax" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{50F43580-94BC-4DF7-906C-B5049204CD45}" name="uMin" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{64951013-F127-4880-8DF9-195F5BC66E39}" name="uDbMin" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{0EFF7A01-7CDB-4432-A035-FE03C107B406}" name="uDbMax" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{B499D4F1-E94A-4499-B81B-47771503706E}" name="uMax" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{A024040B-DEB4-45C4-B50B-8B9D1EC38633}" name="QlimPU" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{44D6CACC-87C7-474D-A013-F2802787AEA6}" name="PFlim" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{F286CAF7-A0A1-4A83-9167-6962C1DC4F73}" name="Enable PF limit" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{5E505627-A6BE-4B46-B2CD-6879E2353AD3}" name="uMinC" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{699B1334-5752-45FD-8527-7FC482FD4818}" name="uMaxC" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{571C26D4-5B78-4410-9035-B649B3E22A17}" name="PminVW" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{7BB9F0B7-6D2B-4802-B848-A41BA107C703}" name="VWtype" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{701B12E9-A0B7-48E8-9DCE-960902C2FD40}" name="%PCutin" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{263B6D4B-19A5-45C0-84D8-5B1B6CD9ACE9}" name="%PCutout" dataDxfId="9"/>
-    <tableColumn id="27" xr3:uid="{8AA1DA22-77A3-4778-9172-4A0A0D5B9154}" name="%UCutoff" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{068CCA2F-AECD-467F-8DC8-D114757FC4B7}" name="Enable Cutoff" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{7129F07D-2EC6-45C8-AA0D-04A4A1F66927}" name="Efficiency" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{1104049F-AE09-49A7-8F28-007ABA44D014}" name="Priority" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{2486CD6C-7AF6-4CAE-BCBF-F31975C62FC2}" name="pDampCoef" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{B9A0778E-0AFB-461E-9E51-C5DA03DF300D}" name="qDampCoef" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E1CD1FBD-A7ED-42A0-AF35-86775A261772}" name="Controlled PV" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{AF4A7107-9C3C-4823-B3E7-ECB1147CA7DE}" name="Qcontrol" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{712A83DD-4F49-42E2-A3CC-AAA4941D8E93}" name="Pcontrol" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{F20023C9-30D5-4EC0-9B61-ED68616FAB45}" name="pf" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0FC49E85-2C8F-4478-920E-D89536D6A11F}" name="pfMin" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{BC4DEAF8-6953-4CEF-99F2-FB425B9384AA}" name="pfMax" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{903CE101-1120-492A-9F9F-B0830D614388}" name="Pmin" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{C54AB87C-C309-4CAC-9FB8-429B54D662F5}" name="Pmax" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{50F43580-94BC-4DF7-906C-B5049204CD45}" name="uMin" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{64951013-F127-4880-8DF9-195F5BC66E39}" name="uDbMin" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{0EFF7A01-7CDB-4432-A035-FE03C107B406}" name="uDbMax" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{B499D4F1-E94A-4499-B81B-47771503706E}" name="uMax" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{A024040B-DEB4-45C4-B50B-8B9D1EC38633}" name="QlimPU" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{44D6CACC-87C7-474D-A013-F2802787AEA6}" name="PFlim" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{F286CAF7-A0A1-4A83-9167-6962C1DC4F73}" name="Enable PF limit" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{5E505627-A6BE-4B46-B2CD-6879E2353AD3}" name="uMinC" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{699B1334-5752-45FD-8527-7FC482FD4818}" name="uMaxC" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{571C26D4-5B78-4410-9035-B649B3E22A17}" name="PminVW" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{7BB9F0B7-6D2B-4802-B848-A41BA107C703}" name="VWtype" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{701B12E9-A0B7-48E8-9DCE-960902C2FD40}" name="%PCutin" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{263B6D4B-19A5-45C0-84D8-5B1B6CD9ACE9}" name="%PCutout" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{8AA1DA22-77A3-4778-9172-4A0A0D5B9154}" name="%UCutoff" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{068CCA2F-AECD-467F-8DC8-D114757FC4B7}" name="Enable Cutoff" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{7129F07D-2EC6-45C8-AA0D-04A4A1F66927}" name="Efficiency" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{1104049F-AE09-49A7-8F28-007ABA44D014}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{2486CD6C-7AF6-4CAE-BCBF-F31975C62FC2}" name="pDampCoef" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{B9A0778E-0AFB-461E-9E51-C5DA03DF300D}" name="qDampCoef" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2916,13 +2916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z533"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2946,48 +2946,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="14"/>
-      <c r="P1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="P1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
       <c r="S1" s="8"/>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
       <c r="AA1" s="19"/>
     </row>
     <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3070,7 +3070,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -3146,14 +3146,14 @@
         <v>562</v>
       </c>
       <c r="Z3" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA3" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3229,14 +3229,14 @@
         <v>562</v>
       </c>
       <c r="Z4" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA4" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -3312,14 +3312,14 @@
         <v>562</v>
       </c>
       <c r="Z5" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA5" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3395,14 +3395,14 @@
         <v>562</v>
       </c>
       <c r="Z6" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA6" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -3478,14 +3478,14 @@
         <v>562</v>
       </c>
       <c r="Z7" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA7" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -3561,14 +3561,14 @@
         <v>562</v>
       </c>
       <c r="Z8" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA8" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -3644,14 +3644,14 @@
         <v>562</v>
       </c>
       <c r="Z9" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA9" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -3727,14 +3727,14 @@
         <v>562</v>
       </c>
       <c r="Z10" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA10" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -3810,14 +3810,14 @@
         <v>562</v>
       </c>
       <c r="Z11" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA11" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -3893,14 +3893,14 @@
         <v>562</v>
       </c>
       <c r="Z12" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA12" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -3976,14 +3976,14 @@
         <v>562</v>
       </c>
       <c r="Z13" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA13" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -4059,14 +4059,14 @@
         <v>562</v>
       </c>
       <c r="Z14" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA14" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -4142,14 +4142,14 @@
         <v>562</v>
       </c>
       <c r="Z15" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA15" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -4225,14 +4225,14 @@
         <v>562</v>
       </c>
       <c r="Z16" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA16" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -4308,14 +4308,14 @@
         <v>562</v>
       </c>
       <c r="Z17" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA17" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -4391,14 +4391,14 @@
         <v>562</v>
       </c>
       <c r="Z18" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA18" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -4474,14 +4474,14 @@
         <v>562</v>
       </c>
       <c r="Z19" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA19" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -4557,14 +4557,14 @@
         <v>562</v>
       </c>
       <c r="Z20" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA20" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -4640,14 +4640,14 @@
         <v>562</v>
       </c>
       <c r="Z21" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA21" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -4723,14 +4723,14 @@
         <v>562</v>
       </c>
       <c r="Z22" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA22" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -4806,14 +4806,14 @@
         <v>562</v>
       </c>
       <c r="Z23" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA23" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -4889,14 +4889,14 @@
         <v>562</v>
       </c>
       <c r="Z24" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA24" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -4972,14 +4972,14 @@
         <v>562</v>
       </c>
       <c r="Z25" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA25" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -5055,14 +5055,14 @@
         <v>562</v>
       </c>
       <c r="Z26" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA26" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -5138,14 +5138,14 @@
         <v>562</v>
       </c>
       <c r="Z27" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA27" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -5221,14 +5221,14 @@
         <v>562</v>
       </c>
       <c r="Z28" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA28" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -5304,14 +5304,14 @@
         <v>562</v>
       </c>
       <c r="Z29" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA29" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -5387,14 +5387,14 @@
         <v>562</v>
       </c>
       <c r="Z30" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA30" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -5470,14 +5470,14 @@
         <v>562</v>
       </c>
       <c r="Z31" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA31" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -5553,14 +5553,14 @@
         <v>562</v>
       </c>
       <c r="Z32" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA32" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -5636,14 +5636,14 @@
         <v>562</v>
       </c>
       <c r="Z33" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA33" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -5719,14 +5719,14 @@
         <v>562</v>
       </c>
       <c r="Z34" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA34" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -5802,14 +5802,14 @@
         <v>562</v>
       </c>
       <c r="Z35" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA35" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="18" t="s">
@@ -5885,14 +5885,14 @@
         <v>562</v>
       </c>
       <c r="Z36" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA36" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -5968,14 +5968,14 @@
         <v>562</v>
       </c>
       <c r="Z37" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA37" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -6051,14 +6051,14 @@
         <v>562</v>
       </c>
       <c r="Z38" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA38" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -6134,14 +6134,14 @@
         <v>562</v>
       </c>
       <c r="Z39" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA39" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -6217,14 +6217,14 @@
         <v>562</v>
       </c>
       <c r="Z40" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA40" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -6300,14 +6300,14 @@
         <v>562</v>
       </c>
       <c r="Z41" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA41" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -6383,14 +6383,14 @@
         <v>562</v>
       </c>
       <c r="Z42" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA42" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="18" t="s">
@@ -6466,14 +6466,14 @@
         <v>562</v>
       </c>
       <c r="Z43" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA43" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -6549,14 +6549,14 @@
         <v>562</v>
       </c>
       <c r="Z44" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA44" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="18" t="s">
@@ -6632,14 +6632,14 @@
         <v>562</v>
       </c>
       <c r="Z45" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA45" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="18" t="s">
@@ -6715,14 +6715,14 @@
         <v>562</v>
       </c>
       <c r="Z46" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA46" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -6798,14 +6798,14 @@
         <v>562</v>
       </c>
       <c r="Z47" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA47" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="18" t="s">
@@ -6881,14 +6881,14 @@
         <v>562</v>
       </c>
       <c r="Z48" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA48" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -6964,14 +6964,14 @@
         <v>562</v>
       </c>
       <c r="Z49" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA49" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="18" t="s">
@@ -7047,14 +7047,14 @@
         <v>562</v>
       </c>
       <c r="Z50" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA50" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -7130,14 +7130,14 @@
         <v>562</v>
       </c>
       <c r="Z51" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA51" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="18" t="s">
@@ -7213,14 +7213,14 @@
         <v>562</v>
       </c>
       <c r="Z52" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA52" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -7296,14 +7296,14 @@
         <v>562</v>
       </c>
       <c r="Z53" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA53" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -7379,14 +7379,14 @@
         <v>562</v>
       </c>
       <c r="Z54" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA54" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -7462,14 +7462,14 @@
         <v>562</v>
       </c>
       <c r="Z55" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA55" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -7545,14 +7545,14 @@
         <v>562</v>
       </c>
       <c r="Z56" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA56" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -7628,14 +7628,14 @@
         <v>562</v>
       </c>
       <c r="Z57" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA57" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -7711,14 +7711,14 @@
         <v>562</v>
       </c>
       <c r="Z58" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA58" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -7794,14 +7794,14 @@
         <v>562</v>
       </c>
       <c r="Z59" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA59" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -7877,14 +7877,14 @@
         <v>562</v>
       </c>
       <c r="Z60" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA60" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -7960,14 +7960,14 @@
         <v>562</v>
       </c>
       <c r="Z61" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA61" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -8043,14 +8043,14 @@
         <v>562</v>
       </c>
       <c r="Z62" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA62" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -8126,14 +8126,14 @@
         <v>562</v>
       </c>
       <c r="Z63" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA63" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="18" t="s">
@@ -8209,14 +8209,14 @@
         <v>562</v>
       </c>
       <c r="Z64" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA64" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B65" s="18" t="s">
@@ -8292,14 +8292,14 @@
         <v>562</v>
       </c>
       <c r="Z65" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA65" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -8375,14 +8375,14 @@
         <v>562</v>
       </c>
       <c r="Z66" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA66" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -8458,14 +8458,14 @@
         <v>562</v>
       </c>
       <c r="Z67" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA67" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="18" t="s">
@@ -8541,14 +8541,14 @@
         <v>562</v>
       </c>
       <c r="Z68" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA68" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="18" t="s">
@@ -8624,14 +8624,14 @@
         <v>562</v>
       </c>
       <c r="Z69" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA69" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -8707,14 +8707,14 @@
         <v>562</v>
       </c>
       <c r="Z70" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA70" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="18" t="s">
@@ -8790,14 +8790,14 @@
         <v>562</v>
       </c>
       <c r="Z71" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA71" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -8873,14 +8873,14 @@
         <v>562</v>
       </c>
       <c r="Z72" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA72" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="22" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -8956,14 +8956,14 @@
         <v>562</v>
       </c>
       <c r="Z73" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA73" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="22" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="18" t="s">
@@ -9039,14 +9039,14 @@
         <v>562</v>
       </c>
       <c r="Z74" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA74" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -9122,14 +9122,14 @@
         <v>562</v>
       </c>
       <c r="Z75" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA75" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -9205,14 +9205,14 @@
         <v>562</v>
       </c>
       <c r="Z76" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA76" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -9288,14 +9288,14 @@
         <v>562</v>
       </c>
       <c r="Z77" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA77" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -9371,14 +9371,14 @@
         <v>562</v>
       </c>
       <c r="Z78" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA78" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="22" t="s">
         <v>99</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -9454,14 +9454,14 @@
         <v>562</v>
       </c>
       <c r="Z79" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA79" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -9537,14 +9537,14 @@
         <v>562</v>
       </c>
       <c r="Z80" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA80" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -9620,14 +9620,14 @@
         <v>562</v>
       </c>
       <c r="Z81" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA81" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -9703,14 +9703,14 @@
         <v>562</v>
       </c>
       <c r="Z82" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA82" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -9786,14 +9786,14 @@
         <v>562</v>
       </c>
       <c r="Z83" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA83" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B84" s="18" t="s">
@@ -9869,14 +9869,14 @@
         <v>562</v>
       </c>
       <c r="Z84" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA84" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="22" t="s">
         <v>105</v>
       </c>
       <c r="B85" s="18" t="s">
@@ -9952,14 +9952,14 @@
         <v>562</v>
       </c>
       <c r="Z85" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA85" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="18" t="s">
@@ -10035,14 +10035,14 @@
         <v>562</v>
       </c>
       <c r="Z86" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA86" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -10118,14 +10118,14 @@
         <v>562</v>
       </c>
       <c r="Z87" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA87" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -10201,14 +10201,14 @@
         <v>562</v>
       </c>
       <c r="Z88" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA88" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="18" t="s">
@@ -10284,14 +10284,14 @@
         <v>562</v>
       </c>
       <c r="Z89" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA89" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="18" t="s">
@@ -10367,14 +10367,14 @@
         <v>562</v>
       </c>
       <c r="Z90" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA90" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B91" s="18" t="s">
@@ -10450,14 +10450,14 @@
         <v>562</v>
       </c>
       <c r="Z91" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA91" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="22" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -10533,14 +10533,14 @@
         <v>562</v>
       </c>
       <c r="Z92" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA92" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="18" t="s">
@@ -10616,14 +10616,14 @@
         <v>562</v>
       </c>
       <c r="Z93" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA93" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="18" t="s">
@@ -10699,14 +10699,14 @@
         <v>562</v>
       </c>
       <c r="Z94" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA94" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B95" s="18" t="s">
@@ -10782,14 +10782,14 @@
         <v>562</v>
       </c>
       <c r="Z95" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA95" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="18" t="s">
@@ -10865,14 +10865,14 @@
         <v>562</v>
       </c>
       <c r="Z96" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA96" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -10948,14 +10948,14 @@
         <v>562</v>
       </c>
       <c r="Z97" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA97" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="22" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="18" t="s">
@@ -11031,14 +11031,14 @@
         <v>562</v>
       </c>
       <c r="Z98" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA98" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -11114,14 +11114,14 @@
         <v>562</v>
       </c>
       <c r="Z99" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA99" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B100" s="18" t="s">
@@ -11197,14 +11197,14 @@
         <v>562</v>
       </c>
       <c r="Z100" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA100" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="22" t="s">
         <v>121</v>
       </c>
       <c r="B101" s="18" t="s">
@@ -11280,14 +11280,14 @@
         <v>562</v>
       </c>
       <c r="Z101" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA101" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="22" t="s">
         <v>122</v>
       </c>
       <c r="B102" s="18" t="s">
@@ -11363,14 +11363,14 @@
         <v>562</v>
       </c>
       <c r="Z102" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA102" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="22" t="s">
         <v>123</v>
       </c>
       <c r="B103" s="18" t="s">
@@ -11446,14 +11446,14 @@
         <v>562</v>
       </c>
       <c r="Z103" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA103" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="22" t="s">
         <v>124</v>
       </c>
       <c r="B104" s="18" t="s">
@@ -11529,14 +11529,14 @@
         <v>562</v>
       </c>
       <c r="Z104" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA104" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="22" t="s">
         <v>125</v>
       </c>
       <c r="B105" s="18" t="s">
@@ -11612,14 +11612,14 @@
         <v>562</v>
       </c>
       <c r="Z105" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA105" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -11695,14 +11695,14 @@
         <v>562</v>
       </c>
       <c r="Z106" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA106" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="22" t="s">
         <v>127</v>
       </c>
       <c r="B107" s="18" t="s">
@@ -11778,14 +11778,14 @@
         <v>562</v>
       </c>
       <c r="Z107" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA107" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="22" t="s">
         <v>128</v>
       </c>
       <c r="B108" s="18" t="s">
@@ -11861,14 +11861,14 @@
         <v>562</v>
       </c>
       <c r="Z108" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA108" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="22" t="s">
         <v>129</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -11944,14 +11944,14 @@
         <v>562</v>
       </c>
       <c r="Z109" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA109" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B110" s="18" t="s">
@@ -12027,14 +12027,14 @@
         <v>562</v>
       </c>
       <c r="Z110" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA110" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B111" s="18" t="s">
@@ -12110,14 +12110,14 @@
         <v>562</v>
       </c>
       <c r="Z111" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA111" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="22" t="s">
         <v>132</v>
       </c>
       <c r="B112" s="18" t="s">
@@ -12193,14 +12193,14 @@
         <v>562</v>
       </c>
       <c r="Z112" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA112" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="22" t="s">
         <v>133</v>
       </c>
       <c r="B113" s="18" t="s">
@@ -12276,14 +12276,14 @@
         <v>562</v>
       </c>
       <c r="Z113" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA113" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="22" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="18" t="s">
@@ -12359,14 +12359,14 @@
         <v>562</v>
       </c>
       <c r="Z114" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA114" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="22" t="s">
         <v>135</v>
       </c>
       <c r="B115" s="18" t="s">
@@ -12442,14 +12442,14 @@
         <v>562</v>
       </c>
       <c r="Z115" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA115" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="22" t="s">
         <v>136</v>
       </c>
       <c r="B116" s="18" t="s">
@@ -12525,14 +12525,14 @@
         <v>562</v>
       </c>
       <c r="Z116" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA116" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="22" t="s">
         <v>137</v>
       </c>
       <c r="B117" s="18" t="s">
@@ -12608,14 +12608,14 @@
         <v>562</v>
       </c>
       <c r="Z117" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA117" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="22" t="s">
         <v>138</v>
       </c>
       <c r="B118" s="18" t="s">
@@ -12691,14 +12691,14 @@
         <v>562</v>
       </c>
       <c r="Z118" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA118" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="22" t="s">
         <v>139</v>
       </c>
       <c r="B119" s="18" t="s">
@@ -12774,14 +12774,14 @@
         <v>562</v>
       </c>
       <c r="Z119" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA119" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="22" t="s">
         <v>140</v>
       </c>
       <c r="B120" s="18" t="s">
@@ -12857,14 +12857,14 @@
         <v>562</v>
       </c>
       <c r="Z120" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA120" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="22" t="s">
         <v>141</v>
       </c>
       <c r="B121" s="18" t="s">
@@ -12940,14 +12940,14 @@
         <v>562</v>
       </c>
       <c r="Z121" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA121" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="22" t="s">
         <v>142</v>
       </c>
       <c r="B122" s="18" t="s">
@@ -13023,14 +13023,14 @@
         <v>562</v>
       </c>
       <c r="Z122" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA122" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="22" t="s">
         <v>143</v>
       </c>
       <c r="B123" s="18" t="s">
@@ -13106,14 +13106,14 @@
         <v>562</v>
       </c>
       <c r="Z123" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA123" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="22" t="s">
         <v>144</v>
       </c>
       <c r="B124" s="18" t="s">
@@ -13189,14 +13189,14 @@
         <v>562</v>
       </c>
       <c r="Z124" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA124" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="22" t="s">
         <v>145</v>
       </c>
       <c r="B125" s="18" t="s">
@@ -13272,14 +13272,14 @@
         <v>562</v>
       </c>
       <c r="Z125" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA125" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="22" t="s">
         <v>146</v>
       </c>
       <c r="B126" s="18" t="s">
@@ -13355,14 +13355,14 @@
         <v>562</v>
       </c>
       <c r="Z126" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA126" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="22" t="s">
         <v>147</v>
       </c>
       <c r="B127" s="18" t="s">
@@ -13438,14 +13438,14 @@
         <v>562</v>
       </c>
       <c r="Z127" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA127" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="22" t="s">
         <v>148</v>
       </c>
       <c r="B128" s="18" t="s">
@@ -13521,14 +13521,14 @@
         <v>562</v>
       </c>
       <c r="Z128" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA128" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="22" t="s">
         <v>168</v>
       </c>
       <c r="B129" s="18" t="s">
@@ -13604,14 +13604,14 @@
         <v>562</v>
       </c>
       <c r="Z129" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA129" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="22" t="s">
         <v>169</v>
       </c>
       <c r="B130" s="18" t="s">
@@ -13687,14 +13687,14 @@
         <v>562</v>
       </c>
       <c r="Z130" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA130" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B131" s="18" t="s">
@@ -13770,14 +13770,14 @@
         <v>562</v>
       </c>
       <c r="Z131" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA131" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="22" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="18" t="s">
@@ -13853,14 +13853,14 @@
         <v>562</v>
       </c>
       <c r="Z132" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA132" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="22" t="s">
         <v>150</v>
       </c>
       <c r="B133" s="18" t="s">
@@ -13936,14 +13936,14 @@
         <v>562</v>
       </c>
       <c r="Z133" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA133" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="22" t="s">
         <v>151</v>
       </c>
       <c r="B134" s="18" t="s">
@@ -14019,14 +14019,14 @@
         <v>562</v>
       </c>
       <c r="Z134" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA134" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="22" t="s">
         <v>152</v>
       </c>
       <c r="B135" s="18" t="s">
@@ -14102,14 +14102,14 @@
         <v>562</v>
       </c>
       <c r="Z135" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA135" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="22" t="s">
         <v>153</v>
       </c>
       <c r="B136" s="18" t="s">
@@ -14185,14 +14185,14 @@
         <v>562</v>
       </c>
       <c r="Z136" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA136" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="22" t="s">
         <v>154</v>
       </c>
       <c r="B137" s="18" t="s">
@@ -14268,14 +14268,14 @@
         <v>562</v>
       </c>
       <c r="Z137" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA137" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="22" t="s">
         <v>155</v>
       </c>
       <c r="B138" s="18" t="s">
@@ -14351,14 +14351,14 @@
         <v>562</v>
       </c>
       <c r="Z138" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA138" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="22" t="s">
         <v>156</v>
       </c>
       <c r="B139" s="18" t="s">
@@ -14434,14 +14434,14 @@
         <v>562</v>
       </c>
       <c r="Z139" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA139" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="22" t="s">
         <v>157</v>
       </c>
       <c r="B140" s="18" t="s">
@@ -14517,14 +14517,14 @@
         <v>562</v>
       </c>
       <c r="Z140" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA140" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B141" s="18" t="s">
@@ -14600,14 +14600,14 @@
         <v>562</v>
       </c>
       <c r="Z141" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA141" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="22" t="s">
         <v>159</v>
       </c>
       <c r="B142" s="18" t="s">
@@ -14683,14 +14683,14 @@
         <v>562</v>
       </c>
       <c r="Z142" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA142" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="22" t="s">
         <v>160</v>
       </c>
       <c r="B143" s="18" t="s">
@@ -14766,14 +14766,14 @@
         <v>562</v>
       </c>
       <c r="Z143" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA143" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="22" t="s">
         <v>161</v>
       </c>
       <c r="B144" s="18" t="s">
@@ -14849,14 +14849,14 @@
         <v>562</v>
       </c>
       <c r="Z144" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA144" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="22" t="s">
         <v>162</v>
       </c>
       <c r="B145" s="18" t="s">
@@ -14932,14 +14932,14 @@
         <v>562</v>
       </c>
       <c r="Z145" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA145" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="22" t="s">
         <v>163</v>
       </c>
       <c r="B146" s="18" t="s">
@@ -15015,14 +15015,14 @@
         <v>562</v>
       </c>
       <c r="Z146" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA146" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B147" s="18" t="s">
@@ -15098,14 +15098,14 @@
         <v>562</v>
       </c>
       <c r="Z147" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA147" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="22" t="s">
         <v>172</v>
       </c>
       <c r="B148" s="18" t="s">
@@ -15181,14 +15181,14 @@
         <v>562</v>
       </c>
       <c r="Z148" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA148" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="22" t="s">
         <v>173</v>
       </c>
       <c r="B149" s="18" t="s">
@@ -15264,14 +15264,14 @@
         <v>562</v>
       </c>
       <c r="Z149" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA149" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="22" t="s">
         <v>174</v>
       </c>
       <c r="B150" s="18" t="s">
@@ -15347,14 +15347,14 @@
         <v>562</v>
       </c>
       <c r="Z150" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA150" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="22" t="s">
         <v>175</v>
       </c>
       <c r="B151" s="18" t="s">
@@ -15430,14 +15430,14 @@
         <v>562</v>
       </c>
       <c r="Z151" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA151" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="22" t="s">
         <v>176</v>
       </c>
       <c r="B152" s="18" t="s">
@@ -15513,14 +15513,14 @@
         <v>562</v>
       </c>
       <c r="Z152" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA152" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="22" t="s">
         <v>177</v>
       </c>
       <c r="B153" s="18" t="s">
@@ -15596,14 +15596,14 @@
         <v>562</v>
       </c>
       <c r="Z153" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA153" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="22" t="s">
         <v>178</v>
       </c>
       <c r="B154" s="18" t="s">
@@ -15679,14 +15679,14 @@
         <v>562</v>
       </c>
       <c r="Z154" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA154" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="22" t="s">
         <v>179</v>
       </c>
       <c r="B155" s="18" t="s">
@@ -15762,14 +15762,14 @@
         <v>562</v>
       </c>
       <c r="Z155" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA155" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="22" t="s">
         <v>180</v>
       </c>
       <c r="B156" s="18" t="s">
@@ -15845,14 +15845,14 @@
         <v>562</v>
       </c>
       <c r="Z156" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA156" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="22" t="s">
         <v>181</v>
       </c>
       <c r="B157" s="18" t="s">
@@ -15928,14 +15928,14 @@
         <v>562</v>
       </c>
       <c r="Z157" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA157" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="22" t="s">
         <v>182</v>
       </c>
       <c r="B158" s="18" t="s">
@@ -16011,14 +16011,14 @@
         <v>562</v>
       </c>
       <c r="Z158" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA158" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="22" t="s">
         <v>183</v>
       </c>
       <c r="B159" s="18" t="s">
@@ -16094,14 +16094,14 @@
         <v>562</v>
       </c>
       <c r="Z159" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA159" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="22" t="s">
         <v>184</v>
       </c>
       <c r="B160" s="18" t="s">
@@ -16177,14 +16177,14 @@
         <v>562</v>
       </c>
       <c r="Z160" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA160" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="22" t="s">
         <v>185</v>
       </c>
       <c r="B161" s="18" t="s">
@@ -16260,14 +16260,14 @@
         <v>562</v>
       </c>
       <c r="Z161" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA161" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="22" t="s">
         <v>186</v>
       </c>
       <c r="B162" s="18" t="s">
@@ -16343,14 +16343,14 @@
         <v>562</v>
       </c>
       <c r="Z162" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA162" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="22" t="s">
         <v>187</v>
       </c>
       <c r="B163" s="18" t="s">
@@ -16426,14 +16426,14 @@
         <v>562</v>
       </c>
       <c r="Z163" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA163" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B164" s="18" t="s">
@@ -16509,14 +16509,14 @@
         <v>562</v>
       </c>
       <c r="Z164" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA164" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="22" t="s">
         <v>189</v>
       </c>
       <c r="B165" s="18" t="s">
@@ -16592,14 +16592,14 @@
         <v>562</v>
       </c>
       <c r="Z165" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA165" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="22" t="s">
         <v>190</v>
       </c>
       <c r="B166" s="18" t="s">
@@ -16675,14 +16675,14 @@
         <v>562</v>
       </c>
       <c r="Z166" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA166" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="22" t="s">
         <v>191</v>
       </c>
       <c r="B167" s="18" t="s">
@@ -16758,14 +16758,14 @@
         <v>562</v>
       </c>
       <c r="Z167" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA167" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="22" t="s">
         <v>192</v>
       </c>
       <c r="B168" s="18" t="s">
@@ -16841,14 +16841,14 @@
         <v>562</v>
       </c>
       <c r="Z168" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA168" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="22" t="s">
         <v>193</v>
       </c>
       <c r="B169" s="18" t="s">
@@ -16924,14 +16924,14 @@
         <v>562</v>
       </c>
       <c r="Z169" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA169" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="22" t="s">
         <v>194</v>
       </c>
       <c r="B170" s="18" t="s">
@@ -17007,14 +17007,14 @@
         <v>562</v>
       </c>
       <c r="Z170" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA170" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="22" t="s">
         <v>195</v>
       </c>
       <c r="B171" s="18" t="s">
@@ -17090,14 +17090,14 @@
         <v>562</v>
       </c>
       <c r="Z171" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA171" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="22" t="s">
         <v>196</v>
       </c>
       <c r="B172" s="18" t="s">
@@ -17173,14 +17173,14 @@
         <v>562</v>
       </c>
       <c r="Z172" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA172" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="22" t="s">
         <v>197</v>
       </c>
       <c r="B173" s="18" t="s">
@@ -17256,14 +17256,14 @@
         <v>562</v>
       </c>
       <c r="Z173" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA173" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="22" t="s">
         <v>198</v>
       </c>
       <c r="B174" s="18" t="s">
@@ -17339,14 +17339,14 @@
         <v>562</v>
       </c>
       <c r="Z174" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA174" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="22" t="s">
         <v>199</v>
       </c>
       <c r="B175" s="18" t="s">
@@ -17422,14 +17422,14 @@
         <v>562</v>
       </c>
       <c r="Z175" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA175" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="22" t="s">
         <v>200</v>
       </c>
       <c r="B176" s="18" t="s">
@@ -17505,14 +17505,14 @@
         <v>562</v>
       </c>
       <c r="Z176" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA176" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="22" t="s">
         <v>201</v>
       </c>
       <c r="B177" s="18" t="s">
@@ -17588,14 +17588,14 @@
         <v>562</v>
       </c>
       <c r="Z177" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA177" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="22" t="s">
         <v>202</v>
       </c>
       <c r="B178" s="18" t="s">
@@ -17671,14 +17671,14 @@
         <v>562</v>
       </c>
       <c r="Z178" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA178" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="22" t="s">
         <v>203</v>
       </c>
       <c r="B179" s="18" t="s">
@@ -17754,14 +17754,14 @@
         <v>562</v>
       </c>
       <c r="Z179" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA179" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="22" t="s">
         <v>204</v>
       </c>
       <c r="B180" s="18" t="s">
@@ -17837,14 +17837,14 @@
         <v>562</v>
       </c>
       <c r="Z180" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA180" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="22" t="s">
         <v>205</v>
       </c>
       <c r="B181" s="18" t="s">
@@ -17920,14 +17920,14 @@
         <v>562</v>
       </c>
       <c r="Z181" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA181" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="22" t="s">
         <v>206</v>
       </c>
       <c r="B182" s="18" t="s">
@@ -18003,14 +18003,14 @@
         <v>562</v>
       </c>
       <c r="Z182" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA182" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="22" t="s">
         <v>207</v>
       </c>
       <c r="B183" s="18" t="s">
@@ -18086,14 +18086,14 @@
         <v>562</v>
       </c>
       <c r="Z183" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA183" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="22" t="s">
         <v>208</v>
       </c>
       <c r="B184" s="18" t="s">
@@ -18169,14 +18169,14 @@
         <v>562</v>
       </c>
       <c r="Z184" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA184" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="22" t="s">
         <v>209</v>
       </c>
       <c r="B185" s="18" t="s">
@@ -18252,14 +18252,14 @@
         <v>562</v>
       </c>
       <c r="Z185" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA185" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="22" t="s">
         <v>210</v>
       </c>
       <c r="B186" s="18" t="s">
@@ -18335,14 +18335,14 @@
         <v>562</v>
       </c>
       <c r="Z186" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA186" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="22" t="s">
         <v>211</v>
       </c>
       <c r="B187" s="18" t="s">
@@ -18418,14 +18418,14 @@
         <v>562</v>
       </c>
       <c r="Z187" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA187" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="22" t="s">
         <v>212</v>
       </c>
       <c r="B188" s="18" t="s">
@@ -18501,14 +18501,14 @@
         <v>562</v>
       </c>
       <c r="Z188" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA188" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="22" t="s">
         <v>213</v>
       </c>
       <c r="B189" s="18" t="s">
@@ -18584,14 +18584,14 @@
         <v>562</v>
       </c>
       <c r="Z189" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA189" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="22" t="s">
         <v>214</v>
       </c>
       <c r="B190" s="18" t="s">
@@ -18667,14 +18667,14 @@
         <v>562</v>
       </c>
       <c r="Z190" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA190" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="22" t="s">
         <v>215</v>
       </c>
       <c r="B191" s="18" t="s">
@@ -18750,14 +18750,14 @@
         <v>562</v>
       </c>
       <c r="Z191" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA191" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="22" t="s">
         <v>216</v>
       </c>
       <c r="B192" s="18" t="s">
@@ -18833,14 +18833,14 @@
         <v>562</v>
       </c>
       <c r="Z192" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA192" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="22" t="s">
         <v>217</v>
       </c>
       <c r="B193" s="18" t="s">
@@ -18916,14 +18916,14 @@
         <v>562</v>
       </c>
       <c r="Z193" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA193" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="22" t="s">
         <v>218</v>
       </c>
       <c r="B194" s="18" t="s">
@@ -18999,14 +18999,14 @@
         <v>562</v>
       </c>
       <c r="Z194" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA194" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="22" t="s">
         <v>219</v>
       </c>
       <c r="B195" s="18" t="s">
@@ -19082,14 +19082,14 @@
         <v>562</v>
       </c>
       <c r="Z195" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA195" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="22" t="s">
         <v>220</v>
       </c>
       <c r="B196" s="18" t="s">
@@ -19165,14 +19165,14 @@
         <v>562</v>
       </c>
       <c r="Z196" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA196" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="22" t="s">
         <v>221</v>
       </c>
       <c r="B197" s="18" t="s">
@@ -19248,14 +19248,14 @@
         <v>562</v>
       </c>
       <c r="Z197" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA197" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="22" t="s">
         <v>222</v>
       </c>
       <c r="B198" s="18" t="s">
@@ -19331,14 +19331,14 @@
         <v>562</v>
       </c>
       <c r="Z198" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA198" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="22" t="s">
         <v>223</v>
       </c>
       <c r="B199" s="18" t="s">
@@ -19414,14 +19414,14 @@
         <v>562</v>
       </c>
       <c r="Z199" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA199" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="22" t="s">
         <v>224</v>
       </c>
       <c r="B200" s="18" t="s">
@@ -19497,14 +19497,14 @@
         <v>562</v>
       </c>
       <c r="Z200" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA200" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="22" t="s">
         <v>225</v>
       </c>
       <c r="B201" s="18" t="s">
@@ -19580,14 +19580,14 @@
         <v>562</v>
       </c>
       <c r="Z201" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA201" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="22" t="s">
         <v>226</v>
       </c>
       <c r="B202" s="18" t="s">
@@ -19663,14 +19663,14 @@
         <v>562</v>
       </c>
       <c r="Z202" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA202" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="22" t="s">
         <v>227</v>
       </c>
       <c r="B203" s="18" t="s">
@@ -19746,14 +19746,14 @@
         <v>562</v>
       </c>
       <c r="Z203" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA203" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="22" t="s">
         <v>228</v>
       </c>
       <c r="B204" s="18" t="s">
@@ -19829,14 +19829,14 @@
         <v>562</v>
       </c>
       <c r="Z204" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA204" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="22" t="s">
         <v>229</v>
       </c>
       <c r="B205" s="18" t="s">
@@ -19912,14 +19912,14 @@
         <v>562</v>
       </c>
       <c r="Z205" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA205" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="22" t="s">
         <v>230</v>
       </c>
       <c r="B206" s="18" t="s">
@@ -19995,14 +19995,14 @@
         <v>562</v>
       </c>
       <c r="Z206" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA206" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="22" t="s">
         <v>231</v>
       </c>
       <c r="B207" s="18" t="s">
@@ -20078,14 +20078,14 @@
         <v>562</v>
       </c>
       <c r="Z207" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA207" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="22" t="s">
         <v>232</v>
       </c>
       <c r="B208" s="18" t="s">
@@ -20161,14 +20161,14 @@
         <v>562</v>
       </c>
       <c r="Z208" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA208" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="22" t="s">
         <v>233</v>
       </c>
       <c r="B209" s="18" t="s">
@@ -20244,14 +20244,14 @@
         <v>562</v>
       </c>
       <c r="Z209" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA209" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A210" s="25" t="s">
+      <c r="A210" s="22" t="s">
         <v>234</v>
       </c>
       <c r="B210" s="18" t="s">
@@ -20327,14 +20327,14 @@
         <v>562</v>
       </c>
       <c r="Z210" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA210" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="22" t="s">
         <v>235</v>
       </c>
       <c r="B211" s="18" t="s">
@@ -20410,14 +20410,14 @@
         <v>562</v>
       </c>
       <c r="Z211" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA211" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A212" s="25" t="s">
+      <c r="A212" s="22" t="s">
         <v>236</v>
       </c>
       <c r="B212" s="18" t="s">
@@ -20493,14 +20493,14 @@
         <v>562</v>
       </c>
       <c r="Z212" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA212" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="22" t="s">
         <v>237</v>
       </c>
       <c r="B213" s="18" t="s">
@@ -20576,14 +20576,14 @@
         <v>562</v>
       </c>
       <c r="Z213" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA213" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A214" s="25" t="s">
+      <c r="A214" s="22" t="s">
         <v>238</v>
       </c>
       <c r="B214" s="18" t="s">
@@ -20659,14 +20659,14 @@
         <v>562</v>
       </c>
       <c r="Z214" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA214" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A215" s="25" t="s">
+      <c r="A215" s="22" t="s">
         <v>239</v>
       </c>
       <c r="B215" s="18" t="s">
@@ -20742,14 +20742,14 @@
         <v>562</v>
       </c>
       <c r="Z215" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA215" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="22" t="s">
         <v>240</v>
       </c>
       <c r="B216" s="18" t="s">
@@ -20825,14 +20825,14 @@
         <v>562</v>
       </c>
       <c r="Z216" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA216" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A217" s="25" t="s">
+      <c r="A217" s="22" t="s">
         <v>241</v>
       </c>
       <c r="B217" s="18" t="s">
@@ -20908,14 +20908,14 @@
         <v>562</v>
       </c>
       <c r="Z217" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA217" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A218" s="25" t="s">
+      <c r="A218" s="22" t="s">
         <v>242</v>
       </c>
       <c r="B218" s="18" t="s">
@@ -20991,14 +20991,14 @@
         <v>562</v>
       </c>
       <c r="Z218" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA218" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="22" t="s">
         <v>243</v>
       </c>
       <c r="B219" s="18" t="s">
@@ -21074,14 +21074,14 @@
         <v>562</v>
       </c>
       <c r="Z219" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA219" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A220" s="25" t="s">
+      <c r="A220" s="22" t="s">
         <v>244</v>
       </c>
       <c r="B220" s="18" t="s">
@@ -21157,14 +21157,14 @@
         <v>562</v>
       </c>
       <c r="Z220" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA220" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="22" t="s">
         <v>245</v>
       </c>
       <c r="B221" s="18" t="s">
@@ -21240,14 +21240,14 @@
         <v>562</v>
       </c>
       <c r="Z221" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA221" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="22" t="s">
         <v>246</v>
       </c>
       <c r="B222" s="18" t="s">
@@ -21323,14 +21323,14 @@
         <v>562</v>
       </c>
       <c r="Z222" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA222" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="22" t="s">
         <v>247</v>
       </c>
       <c r="B223" s="18" t="s">
@@ -21406,14 +21406,14 @@
         <v>562</v>
       </c>
       <c r="Z223" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA223" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="22" t="s">
         <v>248</v>
       </c>
       <c r="B224" s="18" t="s">
@@ -21489,14 +21489,14 @@
         <v>562</v>
       </c>
       <c r="Z224" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA224" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="22" t="s">
         <v>249</v>
       </c>
       <c r="B225" s="18" t="s">
@@ -21572,14 +21572,14 @@
         <v>562</v>
       </c>
       <c r="Z225" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA225" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="22" t="s">
         <v>250</v>
       </c>
       <c r="B226" s="18" t="s">
@@ -21655,14 +21655,14 @@
         <v>562</v>
       </c>
       <c r="Z226" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA226" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="22" t="s">
         <v>251</v>
       </c>
       <c r="B227" s="18" t="s">
@@ -21738,14 +21738,14 @@
         <v>562</v>
       </c>
       <c r="Z227" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA227" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A228" s="25" t="s">
+      <c r="A228" s="22" t="s">
         <v>252</v>
       </c>
       <c r="B228" s="18" t="s">
@@ -21821,14 +21821,14 @@
         <v>562</v>
       </c>
       <c r="Z228" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA228" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="22" t="s">
         <v>253</v>
       </c>
       <c r="B229" s="18" t="s">
@@ -21904,14 +21904,14 @@
         <v>562</v>
       </c>
       <c r="Z229" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA229" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A230" s="25" t="s">
+      <c r="A230" s="22" t="s">
         <v>254</v>
       </c>
       <c r="B230" s="18" t="s">
@@ -21987,14 +21987,14 @@
         <v>562</v>
       </c>
       <c r="Z230" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA230" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A231" s="25" t="s">
+      <c r="A231" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B231" s="18" t="s">
@@ -22070,14 +22070,14 @@
         <v>562</v>
       </c>
       <c r="Z231" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA231" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A232" s="25" t="s">
+      <c r="A232" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B232" s="18" t="s">
@@ -22153,14 +22153,14 @@
         <v>562</v>
       </c>
       <c r="Z232" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA232" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A233" s="25" t="s">
+      <c r="A233" s="22" t="s">
         <v>257</v>
       </c>
       <c r="B233" s="18" t="s">
@@ -22236,14 +22236,14 @@
         <v>562</v>
       </c>
       <c r="Z233" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA233" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A234" s="25" t="s">
+      <c r="A234" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B234" s="18" t="s">
@@ -22319,14 +22319,14 @@
         <v>562</v>
       </c>
       <c r="Z234" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA234" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A235" s="25" t="s">
+      <c r="A235" s="22" t="s">
         <v>259</v>
       </c>
       <c r="B235" s="18" t="s">
@@ -22402,14 +22402,14 @@
         <v>562</v>
       </c>
       <c r="Z235" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA235" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A236" s="25" t="s">
+      <c r="A236" s="22" t="s">
         <v>260</v>
       </c>
       <c r="B236" s="18" t="s">
@@ -22485,14 +22485,14 @@
         <v>562</v>
       </c>
       <c r="Z236" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA236" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A237" s="25" t="s">
+      <c r="A237" s="22" t="s">
         <v>261</v>
       </c>
       <c r="B237" s="18" t="s">
@@ -22568,14 +22568,14 @@
         <v>562</v>
       </c>
       <c r="Z237" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA237" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A238" s="25" t="s">
+      <c r="A238" s="22" t="s">
         <v>262</v>
       </c>
       <c r="B238" s="18" t="s">
@@ -22651,14 +22651,14 @@
         <v>562</v>
       </c>
       <c r="Z238" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA238" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A239" s="25" t="s">
+      <c r="A239" s="22" t="s">
         <v>263</v>
       </c>
       <c r="B239" s="18" t="s">
@@ -22734,14 +22734,14 @@
         <v>562</v>
       </c>
       <c r="Z239" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA239" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A240" s="25" t="s">
+      <c r="A240" s="22" t="s">
         <v>264</v>
       </c>
       <c r="B240" s="18" t="s">
@@ -22817,14 +22817,14 @@
         <v>562</v>
       </c>
       <c r="Z240" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA240" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A241" s="25" t="s">
+      <c r="A241" s="22" t="s">
         <v>265</v>
       </c>
       <c r="B241" s="18" t="s">
@@ -22900,14 +22900,14 @@
         <v>562</v>
       </c>
       <c r="Z241" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA241" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A242" s="25" t="s">
+      <c r="A242" s="22" t="s">
         <v>266</v>
       </c>
       <c r="B242" s="18" t="s">
@@ -22983,14 +22983,14 @@
         <v>562</v>
       </c>
       <c r="Z242" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA242" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A243" s="25" t="s">
+      <c r="A243" s="22" t="s">
         <v>267</v>
       </c>
       <c r="B243" s="18" t="s">
@@ -23066,14 +23066,14 @@
         <v>562</v>
       </c>
       <c r="Z243" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA243" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A244" s="25" t="s">
+      <c r="A244" s="22" t="s">
         <v>268</v>
       </c>
       <c r="B244" s="18" t="s">
@@ -23149,14 +23149,14 @@
         <v>562</v>
       </c>
       <c r="Z244" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA244" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A245" s="25" t="s">
+      <c r="A245" s="22" t="s">
         <v>269</v>
       </c>
       <c r="B245" s="18" t="s">
@@ -23232,14 +23232,14 @@
         <v>562</v>
       </c>
       <c r="Z245" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA245" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A246" s="25" t="s">
+      <c r="A246" s="22" t="s">
         <v>270</v>
       </c>
       <c r="B246" s="18" t="s">
@@ -23315,14 +23315,14 @@
         <v>562</v>
       </c>
       <c r="Z246" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA246" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A247" s="25" t="s">
+      <c r="A247" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B247" s="18" t="s">
@@ -23398,14 +23398,14 @@
         <v>562</v>
       </c>
       <c r="Z247" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA247" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A248" s="25" t="s">
+      <c r="A248" s="22" t="s">
         <v>272</v>
       </c>
       <c r="B248" s="18" t="s">
@@ -23481,14 +23481,14 @@
         <v>562</v>
       </c>
       <c r="Z248" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA248" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A249" s="25" t="s">
+      <c r="A249" s="22" t="s">
         <v>273</v>
       </c>
       <c r="B249" s="18" t="s">
@@ -23564,14 +23564,14 @@
         <v>562</v>
       </c>
       <c r="Z249" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA249" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A250" s="25" t="s">
+      <c r="A250" s="22" t="s">
         <v>274</v>
       </c>
       <c r="B250" s="18" t="s">
@@ -23647,14 +23647,14 @@
         <v>562</v>
       </c>
       <c r="Z250" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA250" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A251" s="25" t="s">
+      <c r="A251" s="22" t="s">
         <v>275</v>
       </c>
       <c r="B251" s="18" t="s">
@@ -23730,14 +23730,14 @@
         <v>562</v>
       </c>
       <c r="Z251" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA251" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A252" s="25" t="s">
+      <c r="A252" s="22" t="s">
         <v>276</v>
       </c>
       <c r="B252" s="18" t="s">
@@ -23813,14 +23813,14 @@
         <v>562</v>
       </c>
       <c r="Z252" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA252" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A253" s="25" t="s">
+      <c r="A253" s="22" t="s">
         <v>277</v>
       </c>
       <c r="B253" s="18" t="s">
@@ -23896,14 +23896,14 @@
         <v>562</v>
       </c>
       <c r="Z253" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA253" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A254" s="25" t="s">
+      <c r="A254" s="22" t="s">
         <v>278</v>
       </c>
       <c r="B254" s="18" t="s">
@@ -23979,14 +23979,14 @@
         <v>562</v>
       </c>
       <c r="Z254" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA254" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A255" s="25" t="s">
+      <c r="A255" s="22" t="s">
         <v>279</v>
       </c>
       <c r="B255" s="18" t="s">
@@ -24062,14 +24062,14 @@
         <v>562</v>
       </c>
       <c r="Z255" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA255" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A256" s="25" t="s">
+      <c r="A256" s="22" t="s">
         <v>280</v>
       </c>
       <c r="B256" s="18" t="s">
@@ -24145,14 +24145,14 @@
         <v>562</v>
       </c>
       <c r="Z256" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA256" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A257" s="25" t="s">
+      <c r="A257" s="22" t="s">
         <v>281</v>
       </c>
       <c r="B257" s="18" t="s">
@@ -24228,14 +24228,14 @@
         <v>562</v>
       </c>
       <c r="Z257" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA257" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A258" s="25" t="s">
+      <c r="A258" s="22" t="s">
         <v>282</v>
       </c>
       <c r="B258" s="18" t="s">
@@ -24311,14 +24311,14 @@
         <v>562</v>
       </c>
       <c r="Z258" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA258" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A259" s="25" t="s">
+      <c r="A259" s="22" t="s">
         <v>283</v>
       </c>
       <c r="B259" s="18" t="s">
@@ -24394,14 +24394,14 @@
         <v>562</v>
       </c>
       <c r="Z259" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA259" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A260" s="25" t="s">
+      <c r="A260" s="22" t="s">
         <v>284</v>
       </c>
       <c r="B260" s="18" t="s">
@@ -24477,14 +24477,14 @@
         <v>562</v>
       </c>
       <c r="Z260" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA260" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A261" s="25" t="s">
+      <c r="A261" s="22" t="s">
         <v>285</v>
       </c>
       <c r="B261" s="18" t="s">
@@ -24560,14 +24560,14 @@
         <v>562</v>
       </c>
       <c r="Z261" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA261" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A262" s="25" t="s">
+      <c r="A262" s="22" t="s">
         <v>286</v>
       </c>
       <c r="B262" s="18" t="s">
@@ -24643,14 +24643,14 @@
         <v>562</v>
       </c>
       <c r="Z262" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA262" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A263" s="25" t="s">
+      <c r="A263" s="22" t="s">
         <v>287</v>
       </c>
       <c r="B263" s="18" t="s">
@@ -24726,14 +24726,14 @@
         <v>562</v>
       </c>
       <c r="Z263" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA263" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A264" s="25" t="s">
+      <c r="A264" s="22" t="s">
         <v>288</v>
       </c>
       <c r="B264" s="18" t="s">
@@ -24809,14 +24809,14 @@
         <v>562</v>
       </c>
       <c r="Z264" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA264" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A265" s="25" t="s">
+      <c r="A265" s="22" t="s">
         <v>289</v>
       </c>
       <c r="B265" s="18" t="s">
@@ -24892,14 +24892,14 @@
         <v>562</v>
       </c>
       <c r="Z265" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA265" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A266" s="25" t="s">
+      <c r="A266" s="22" t="s">
         <v>290</v>
       </c>
       <c r="B266" s="18" t="s">
@@ -24975,14 +24975,14 @@
         <v>562</v>
       </c>
       <c r="Z266" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA266" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A267" s="25" t="s">
+      <c r="A267" s="22" t="s">
         <v>291</v>
       </c>
       <c r="B267" s="18" t="s">
@@ -25058,14 +25058,14 @@
         <v>562</v>
       </c>
       <c r="Z267" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA267" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A268" s="25" t="s">
+      <c r="A268" s="22" t="s">
         <v>292</v>
       </c>
       <c r="B268" s="18" t="s">
@@ -25141,14 +25141,14 @@
         <v>562</v>
       </c>
       <c r="Z268" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA268" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A269" s="25" t="s">
+      <c r="A269" s="22" t="s">
         <v>293</v>
       </c>
       <c r="B269" s="18" t="s">
@@ -25224,14 +25224,14 @@
         <v>562</v>
       </c>
       <c r="Z269" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA269" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A270" s="25" t="s">
+      <c r="A270" s="22" t="s">
         <v>294</v>
       </c>
       <c r="B270" s="18" t="s">
@@ -25307,14 +25307,14 @@
         <v>562</v>
       </c>
       <c r="Z270" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA270" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A271" s="25" t="s">
+      <c r="A271" s="22" t="s">
         <v>295</v>
       </c>
       <c r="B271" s="18" t="s">
@@ -25390,14 +25390,14 @@
         <v>562</v>
       </c>
       <c r="Z271" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA271" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A272" s="25" t="s">
+      <c r="A272" s="22" t="s">
         <v>296</v>
       </c>
       <c r="B272" s="18" t="s">
@@ -25473,14 +25473,14 @@
         <v>562</v>
       </c>
       <c r="Z272" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA272" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A273" s="25" t="s">
+      <c r="A273" s="22" t="s">
         <v>297</v>
       </c>
       <c r="B273" s="18" t="s">
@@ -25556,14 +25556,14 @@
         <v>562</v>
       </c>
       <c r="Z273" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA273" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A274" s="25" t="s">
+      <c r="A274" s="22" t="s">
         <v>298</v>
       </c>
       <c r="B274" s="18" t="s">
@@ -25639,14 +25639,14 @@
         <v>562</v>
       </c>
       <c r="Z274" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA274" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A275" s="25" t="s">
+      <c r="A275" s="22" t="s">
         <v>299</v>
       </c>
       <c r="B275" s="18" t="s">
@@ -25722,14 +25722,14 @@
         <v>562</v>
       </c>
       <c r="Z275" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA275" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A276" s="25" t="s">
+      <c r="A276" s="22" t="s">
         <v>300</v>
       </c>
       <c r="B276" s="18" t="s">
@@ -25805,14 +25805,14 @@
         <v>562</v>
       </c>
       <c r="Z276" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA276" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A277" s="25" t="s">
+      <c r="A277" s="22" t="s">
         <v>301</v>
       </c>
       <c r="B277" s="18" t="s">
@@ -25888,14 +25888,14 @@
         <v>562</v>
       </c>
       <c r="Z277" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA277" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A278" s="25" t="s">
+      <c r="A278" s="22" t="s">
         <v>302</v>
       </c>
       <c r="B278" s="18" t="s">
@@ -25971,14 +25971,14 @@
         <v>562</v>
       </c>
       <c r="Z278" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA278" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A279" s="25" t="s">
+      <c r="A279" s="22" t="s">
         <v>303</v>
       </c>
       <c r="B279" s="18" t="s">
@@ -26054,14 +26054,14 @@
         <v>562</v>
       </c>
       <c r="Z279" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA279" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A280" s="25" t="s">
+      <c r="A280" s="22" t="s">
         <v>304</v>
       </c>
       <c r="B280" s="18" t="s">
@@ -26137,14 +26137,14 @@
         <v>562</v>
       </c>
       <c r="Z280" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA280" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A281" s="25" t="s">
+      <c r="A281" s="22" t="s">
         <v>305</v>
       </c>
       <c r="B281" s="18" t="s">
@@ -26220,14 +26220,14 @@
         <v>562</v>
       </c>
       <c r="Z281" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA281" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A282" s="25" t="s">
+      <c r="A282" s="22" t="s">
         <v>306</v>
       </c>
       <c r="B282" s="18" t="s">
@@ -26303,14 +26303,14 @@
         <v>562</v>
       </c>
       <c r="Z282" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA282" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A283" s="25" t="s">
+      <c r="A283" s="22" t="s">
         <v>307</v>
       </c>
       <c r="B283" s="18" t="s">
@@ -26386,14 +26386,14 @@
         <v>562</v>
       </c>
       <c r="Z283" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA283" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A284" s="25" t="s">
+      <c r="A284" s="22" t="s">
         <v>308</v>
       </c>
       <c r="B284" s="18" t="s">
@@ -26469,14 +26469,14 @@
         <v>562</v>
       </c>
       <c r="Z284" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA284" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A285" s="25" t="s">
+      <c r="A285" s="22" t="s">
         <v>309</v>
       </c>
       <c r="B285" s="18" t="s">
@@ -26552,14 +26552,14 @@
         <v>562</v>
       </c>
       <c r="Z285" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA285" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A286" s="25" t="s">
+      <c r="A286" s="22" t="s">
         <v>310</v>
       </c>
       <c r="B286" s="18" t="s">
@@ -26635,14 +26635,14 @@
         <v>562</v>
       </c>
       <c r="Z286" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA286" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A287" s="25" t="s">
+      <c r="A287" s="22" t="s">
         <v>311</v>
       </c>
       <c r="B287" s="18" t="s">
@@ -26718,14 +26718,14 @@
         <v>562</v>
       </c>
       <c r="Z287" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA287" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A288" s="25" t="s">
+      <c r="A288" s="22" t="s">
         <v>312</v>
       </c>
       <c r="B288" s="18" t="s">
@@ -26801,14 +26801,14 @@
         <v>562</v>
       </c>
       <c r="Z288" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA288" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A289" s="25" t="s">
+      <c r="A289" s="22" t="s">
         <v>313</v>
       </c>
       <c r="B289" s="18" t="s">
@@ -26884,14 +26884,14 @@
         <v>562</v>
       </c>
       <c r="Z289" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA289" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A290" s="25" t="s">
+      <c r="A290" s="22" t="s">
         <v>314</v>
       </c>
       <c r="B290" s="18" t="s">
@@ -26967,14 +26967,14 @@
         <v>562</v>
       </c>
       <c r="Z290" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA290" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A291" s="25" t="s">
+      <c r="A291" s="22" t="s">
         <v>315</v>
       </c>
       <c r="B291" s="18" t="s">
@@ -27050,14 +27050,14 @@
         <v>562</v>
       </c>
       <c r="Z291" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA291" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A292" s="25" t="s">
+      <c r="A292" s="22" t="s">
         <v>316</v>
       </c>
       <c r="B292" s="18" t="s">
@@ -27133,14 +27133,14 @@
         <v>562</v>
       </c>
       <c r="Z292" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA292" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A293" s="25" t="s">
+      <c r="A293" s="22" t="s">
         <v>317</v>
       </c>
       <c r="B293" s="18" t="s">
@@ -27216,14 +27216,14 @@
         <v>562</v>
       </c>
       <c r="Z293" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA293" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A294" s="25" t="s">
+      <c r="A294" s="22" t="s">
         <v>318</v>
       </c>
       <c r="B294" s="18" t="s">
@@ -27299,14 +27299,14 @@
         <v>562</v>
       </c>
       <c r="Z294" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA294" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A295" s="25" t="s">
+      <c r="A295" s="22" t="s">
         <v>319</v>
       </c>
       <c r="B295" s="18" t="s">
@@ -27382,14 +27382,14 @@
         <v>562</v>
       </c>
       <c r="Z295" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA295" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A296" s="25" t="s">
+      <c r="A296" s="22" t="s">
         <v>320</v>
       </c>
       <c r="B296" s="18" t="s">
@@ -27465,14 +27465,14 @@
         <v>562</v>
       </c>
       <c r="Z296" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA296" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A297" s="25" t="s">
+      <c r="A297" s="22" t="s">
         <v>321</v>
       </c>
       <c r="B297" s="18" t="s">
@@ -27548,14 +27548,14 @@
         <v>562</v>
       </c>
       <c r="Z297" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA297" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A298" s="25" t="s">
+      <c r="A298" s="22" t="s">
         <v>322</v>
       </c>
       <c r="B298" s="18" t="s">
@@ -27631,14 +27631,14 @@
         <v>562</v>
       </c>
       <c r="Z298" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA298" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A299" s="25" t="s">
+      <c r="A299" s="22" t="s">
         <v>323</v>
       </c>
       <c r="B299" s="18" t="s">
@@ -27714,14 +27714,14 @@
         <v>562</v>
       </c>
       <c r="Z299" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA299" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A300" s="25" t="s">
+      <c r="A300" s="22" t="s">
         <v>324</v>
       </c>
       <c r="B300" s="18" t="s">
@@ -27797,14 +27797,14 @@
         <v>562</v>
       </c>
       <c r="Z300" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA300" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A301" s="25" t="s">
+      <c r="A301" s="22" t="s">
         <v>325</v>
       </c>
       <c r="B301" s="18" t="s">
@@ -27880,14 +27880,14 @@
         <v>562</v>
       </c>
       <c r="Z301" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA301" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A302" s="25" t="s">
+      <c r="A302" s="22" t="s">
         <v>326</v>
       </c>
       <c r="B302" s="18" t="s">
@@ -27963,14 +27963,14 @@
         <v>562</v>
       </c>
       <c r="Z302" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA302" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A303" s="25" t="s">
+      <c r="A303" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B303" s="18" t="s">
@@ -28046,14 +28046,14 @@
         <v>562</v>
       </c>
       <c r="Z303" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA303" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A304" s="25" t="s">
+      <c r="A304" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B304" s="18" t="s">
@@ -28129,14 +28129,14 @@
         <v>562</v>
       </c>
       <c r="Z304" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA304" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A305" s="25" t="s">
+      <c r="A305" s="22" t="s">
         <v>329</v>
       </c>
       <c r="B305" s="18" t="s">
@@ -28212,14 +28212,14 @@
         <v>562</v>
       </c>
       <c r="Z305" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA305" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A306" s="25" t="s">
+      <c r="A306" s="22" t="s">
         <v>330</v>
       </c>
       <c r="B306" s="18" t="s">
@@ -28295,14 +28295,14 @@
         <v>562</v>
       </c>
       <c r="Z306" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA306" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A307" s="25" t="s">
+      <c r="A307" s="22" t="s">
         <v>331</v>
       </c>
       <c r="B307" s="18" t="s">
@@ -28378,14 +28378,14 @@
         <v>562</v>
       </c>
       <c r="Z307" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA307" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A308" s="25" t="s">
+      <c r="A308" s="22" t="s">
         <v>332</v>
       </c>
       <c r="B308" s="18" t="s">
@@ -28461,14 +28461,14 @@
         <v>562</v>
       </c>
       <c r="Z308" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA308" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A309" s="25" t="s">
+      <c r="A309" s="22" t="s">
         <v>333</v>
       </c>
       <c r="B309" s="18" t="s">
@@ -28544,14 +28544,14 @@
         <v>562</v>
       </c>
       <c r="Z309" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA309" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A310" s="25" t="s">
+      <c r="A310" s="22" t="s">
         <v>334</v>
       </c>
       <c r="B310" s="18" t="s">
@@ -28627,14 +28627,14 @@
         <v>562</v>
       </c>
       <c r="Z310" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA310" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A311" s="25" t="s">
+      <c r="A311" s="22" t="s">
         <v>335</v>
       </c>
       <c r="B311" s="18" t="s">
@@ -28710,14 +28710,14 @@
         <v>562</v>
       </c>
       <c r="Z311" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA311" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="22" t="s">
         <v>336</v>
       </c>
       <c r="B312" s="18" t="s">
@@ -28793,14 +28793,14 @@
         <v>562</v>
       </c>
       <c r="Z312" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA312" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A313" s="25" t="s">
+      <c r="A313" s="22" t="s">
         <v>337</v>
       </c>
       <c r="B313" s="18" t="s">
@@ -28876,14 +28876,14 @@
         <v>562</v>
       </c>
       <c r="Z313" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA313" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A314" s="25" t="s">
+      <c r="A314" s="22" t="s">
         <v>338</v>
       </c>
       <c r="B314" s="18" t="s">
@@ -28959,14 +28959,14 @@
         <v>562</v>
       </c>
       <c r="Z314" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA314" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A315" s="25" t="s">
+      <c r="A315" s="22" t="s">
         <v>339</v>
       </c>
       <c r="B315" s="18" t="s">
@@ -29042,14 +29042,14 @@
         <v>562</v>
       </c>
       <c r="Z315" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA315" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A316" s="25" t="s">
+      <c r="A316" s="22" t="s">
         <v>340</v>
       </c>
       <c r="B316" s="18" t="s">
@@ -29125,14 +29125,14 @@
         <v>562</v>
       </c>
       <c r="Z316" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA316" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A317" s="25" t="s">
+      <c r="A317" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B317" s="18" t="s">
@@ -29208,14 +29208,14 @@
         <v>562</v>
       </c>
       <c r="Z317" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA317" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A318" s="25" t="s">
+      <c r="A318" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B318" s="18" t="s">
@@ -29291,14 +29291,14 @@
         <v>562</v>
       </c>
       <c r="Z318" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA318" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A319" s="25" t="s">
+      <c r="A319" s="22" t="s">
         <v>343</v>
       </c>
       <c r="B319" s="18" t="s">
@@ -29374,14 +29374,14 @@
         <v>562</v>
       </c>
       <c r="Z319" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA319" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A320" s="25" t="s">
+      <c r="A320" s="22" t="s">
         <v>344</v>
       </c>
       <c r="B320" s="18" t="s">
@@ -29457,14 +29457,14 @@
         <v>562</v>
       </c>
       <c r="Z320" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA320" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A321" s="25" t="s">
+      <c r="A321" s="22" t="s">
         <v>345</v>
       </c>
       <c r="B321" s="18" t="s">
@@ -29540,14 +29540,14 @@
         <v>562</v>
       </c>
       <c r="Z321" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA321" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A322" s="25" t="s">
+      <c r="A322" s="22" t="s">
         <v>346</v>
       </c>
       <c r="B322" s="18" t="s">
@@ -29623,14 +29623,14 @@
         <v>562</v>
       </c>
       <c r="Z322" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA322" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A323" s="25" t="s">
+      <c r="A323" s="22" t="s">
         <v>347</v>
       </c>
       <c r="B323" s="18" t="s">
@@ -29706,14 +29706,14 @@
         <v>562</v>
       </c>
       <c r="Z323" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA323" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A324" s="25" t="s">
+      <c r="A324" s="22" t="s">
         <v>348</v>
       </c>
       <c r="B324" s="18" t="s">
@@ -29789,14 +29789,14 @@
         <v>562</v>
       </c>
       <c r="Z324" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA324" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A325" s="25" t="s">
+      <c r="A325" s="22" t="s">
         <v>349</v>
       </c>
       <c r="B325" s="18" t="s">
@@ -29872,14 +29872,14 @@
         <v>562</v>
       </c>
       <c r="Z325" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA325" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A326" s="25" t="s">
+      <c r="A326" s="22" t="s">
         <v>350</v>
       </c>
       <c r="B326" s="18" t="s">
@@ -29955,14 +29955,14 @@
         <v>562</v>
       </c>
       <c r="Z326" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA326" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A327" s="25" t="s">
+      <c r="A327" s="22" t="s">
         <v>351</v>
       </c>
       <c r="B327" s="18" t="s">
@@ -30038,14 +30038,14 @@
         <v>562</v>
       </c>
       <c r="Z327" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA327" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A328" s="25" t="s">
+      <c r="A328" s="22" t="s">
         <v>352</v>
       </c>
       <c r="B328" s="18" t="s">
@@ -30121,14 +30121,14 @@
         <v>562</v>
       </c>
       <c r="Z328" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA328" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A329" s="25" t="s">
+      <c r="A329" s="22" t="s">
         <v>353</v>
       </c>
       <c r="B329" s="18" t="s">
@@ -30204,14 +30204,14 @@
         <v>562</v>
       </c>
       <c r="Z329" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA329" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A330" s="25" t="s">
+      <c r="A330" s="22" t="s">
         <v>354</v>
       </c>
       <c r="B330" s="18" t="s">
@@ -30287,14 +30287,14 @@
         <v>562</v>
       </c>
       <c r="Z330" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA330" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A331" s="25" t="s">
+      <c r="A331" s="22" t="s">
         <v>355</v>
       </c>
       <c r="B331" s="18" t="s">
@@ -30370,14 +30370,14 @@
         <v>562</v>
       </c>
       <c r="Z331" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA331" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A332" s="25" t="s">
+      <c r="A332" s="22" t="s">
         <v>356</v>
       </c>
       <c r="B332" s="18" t="s">
@@ -30453,14 +30453,14 @@
         <v>562</v>
       </c>
       <c r="Z332" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA332" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A333" s="25" t="s">
+      <c r="A333" s="22" t="s">
         <v>357</v>
       </c>
       <c r="B333" s="18" t="s">
@@ -30536,14 +30536,14 @@
         <v>562</v>
       </c>
       <c r="Z333" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA333" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="22" t="s">
         <v>358</v>
       </c>
       <c r="B334" s="18" t="s">
@@ -30619,14 +30619,14 @@
         <v>562</v>
       </c>
       <c r="Z334" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA334" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="22" t="s">
         <v>359</v>
       </c>
       <c r="B335" s="18" t="s">
@@ -30702,14 +30702,14 @@
         <v>562</v>
       </c>
       <c r="Z335" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA335" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A336" s="25" t="s">
+      <c r="A336" s="22" t="s">
         <v>360</v>
       </c>
       <c r="B336" s="18" t="s">
@@ -30785,14 +30785,14 @@
         <v>562</v>
       </c>
       <c r="Z336" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA336" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A337" s="25" t="s">
+      <c r="A337" s="22" t="s">
         <v>361</v>
       </c>
       <c r="B337" s="18" t="s">
@@ -30868,14 +30868,14 @@
         <v>562</v>
       </c>
       <c r="Z337" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA337" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A338" s="25" t="s">
+      <c r="A338" s="22" t="s">
         <v>362</v>
       </c>
       <c r="B338" s="18" t="s">
@@ -30951,14 +30951,14 @@
         <v>562</v>
       </c>
       <c r="Z338" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA338" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A339" s="25" t="s">
+      <c r="A339" s="22" t="s">
         <v>363</v>
       </c>
       <c r="B339" s="18" t="s">
@@ -31034,14 +31034,14 @@
         <v>562</v>
       </c>
       <c r="Z339" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA339" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A340" s="25" t="s">
+      <c r="A340" s="22" t="s">
         <v>364</v>
       </c>
       <c r="B340" s="18" t="s">
@@ -31117,14 +31117,14 @@
         <v>562</v>
       </c>
       <c r="Z340" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA340" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A341" s="25" t="s">
+      <c r="A341" s="22" t="s">
         <v>365</v>
       </c>
       <c r="B341" s="18" t="s">
@@ -31200,14 +31200,14 @@
         <v>562</v>
       </c>
       <c r="Z341" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA341" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A342" s="25" t="s">
+      <c r="A342" s="22" t="s">
         <v>366</v>
       </c>
       <c r="B342" s="18" t="s">
@@ -31283,14 +31283,14 @@
         <v>562</v>
       </c>
       <c r="Z342" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA342" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A343" s="25" t="s">
+      <c r="A343" s="22" t="s">
         <v>367</v>
       </c>
       <c r="B343" s="18" t="s">
@@ -31366,14 +31366,14 @@
         <v>562</v>
       </c>
       <c r="Z343" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA343" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A344" s="25" t="s">
+      <c r="A344" s="22" t="s">
         <v>368</v>
       </c>
       <c r="B344" s="18" t="s">
@@ -31449,14 +31449,14 @@
         <v>562</v>
       </c>
       <c r="Z344" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA344" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A345" s="25" t="s">
+      <c r="A345" s="22" t="s">
         <v>369</v>
       </c>
       <c r="B345" s="18" t="s">
@@ -31532,14 +31532,14 @@
         <v>562</v>
       </c>
       <c r="Z345" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA345" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A346" s="25" t="s">
+      <c r="A346" s="22" t="s">
         <v>370</v>
       </c>
       <c r="B346" s="18" t="s">
@@ -31615,14 +31615,14 @@
         <v>562</v>
       </c>
       <c r="Z346" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA346" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A347" s="25" t="s">
+      <c r="A347" s="22" t="s">
         <v>371</v>
       </c>
       <c r="B347" s="18" t="s">
@@ -31698,14 +31698,14 @@
         <v>562</v>
       </c>
       <c r="Z347" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA347" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A348" s="25" t="s">
+      <c r="A348" s="22" t="s">
         <v>372</v>
       </c>
       <c r="B348" s="18" t="s">
@@ -31781,14 +31781,14 @@
         <v>562</v>
       </c>
       <c r="Z348" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA348" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A349" s="25" t="s">
+      <c r="A349" s="22" t="s">
         <v>373</v>
       </c>
       <c r="B349" s="18" t="s">
@@ -31864,14 +31864,14 @@
         <v>562</v>
       </c>
       <c r="Z349" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA349" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A350" s="25" t="s">
+      <c r="A350" s="22" t="s">
         <v>374</v>
       </c>
       <c r="B350" s="18" t="s">
@@ -31947,14 +31947,14 @@
         <v>562</v>
       </c>
       <c r="Z350" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA350" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A351" s="25" t="s">
+      <c r="A351" s="22" t="s">
         <v>375</v>
       </c>
       <c r="B351" s="18" t="s">
@@ -32030,14 +32030,14 @@
         <v>562</v>
       </c>
       <c r="Z351" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA351" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A352" s="25" t="s">
+      <c r="A352" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B352" s="18" t="s">
@@ -32113,14 +32113,14 @@
         <v>562</v>
       </c>
       <c r="Z352" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA352" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A353" s="25" t="s">
+      <c r="A353" s="22" t="s">
         <v>377</v>
       </c>
       <c r="B353" s="18" t="s">
@@ -32196,14 +32196,14 @@
         <v>562</v>
       </c>
       <c r="Z353" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA353" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A354" s="25" t="s">
+      <c r="A354" s="22" t="s">
         <v>378</v>
       </c>
       <c r="B354" s="18" t="s">
@@ -32279,14 +32279,14 @@
         <v>562</v>
       </c>
       <c r="Z354" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA354" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A355" s="25" t="s">
+      <c r="A355" s="22" t="s">
         <v>379</v>
       </c>
       <c r="B355" s="18" t="s">
@@ -32362,14 +32362,14 @@
         <v>562</v>
       </c>
       <c r="Z355" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA355" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="22" t="s">
         <v>380</v>
       </c>
       <c r="B356" s="18" t="s">
@@ -32445,14 +32445,14 @@
         <v>562</v>
       </c>
       <c r="Z356" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA356" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A357" s="25" t="s">
+      <c r="A357" s="22" t="s">
         <v>381</v>
       </c>
       <c r="B357" s="18" t="s">
@@ -32528,14 +32528,14 @@
         <v>562</v>
       </c>
       <c r="Z357" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA357" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A358" s="25" t="s">
+      <c r="A358" s="22" t="s">
         <v>382</v>
       </c>
       <c r="B358" s="18" t="s">
@@ -32611,14 +32611,14 @@
         <v>562</v>
       </c>
       <c r="Z358" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA358" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A359" s="25" t="s">
+      <c r="A359" s="22" t="s">
         <v>383</v>
       </c>
       <c r="B359" s="18" t="s">
@@ -32694,14 +32694,14 @@
         <v>562</v>
       </c>
       <c r="Z359" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA359" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A360" s="25" t="s">
+      <c r="A360" s="22" t="s">
         <v>384</v>
       </c>
       <c r="B360" s="18" t="s">
@@ -32777,14 +32777,14 @@
         <v>562</v>
       </c>
       <c r="Z360" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA360" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A361" s="25" t="s">
+      <c r="A361" s="22" t="s">
         <v>385</v>
       </c>
       <c r="B361" s="18" t="s">
@@ -32860,14 +32860,14 @@
         <v>562</v>
       </c>
       <c r="Z361" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA361" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A362" s="25" t="s">
+      <c r="A362" s="22" t="s">
         <v>386</v>
       </c>
       <c r="B362" s="18" t="s">
@@ -32943,14 +32943,14 @@
         <v>562</v>
       </c>
       <c r="Z362" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA362" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A363" s="25" t="s">
+      <c r="A363" s="22" t="s">
         <v>387</v>
       </c>
       <c r="B363" s="18" t="s">
@@ -33026,14 +33026,14 @@
         <v>562</v>
       </c>
       <c r="Z363" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA363" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A364" s="25" t="s">
+      <c r="A364" s="22" t="s">
         <v>388</v>
       </c>
       <c r="B364" s="18" t="s">
@@ -33109,14 +33109,14 @@
         <v>562</v>
       </c>
       <c r="Z364" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA364" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A365" s="25" t="s">
+      <c r="A365" s="22" t="s">
         <v>389</v>
       </c>
       <c r="B365" s="18" t="s">
@@ -33192,14 +33192,14 @@
         <v>562</v>
       </c>
       <c r="Z365" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA365" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A366" s="25" t="s">
+      <c r="A366" s="22" t="s">
         <v>390</v>
       </c>
       <c r="B366" s="18" t="s">
@@ -33275,14 +33275,14 @@
         <v>562</v>
       </c>
       <c r="Z366" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA366" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A367" s="25" t="s">
+      <c r="A367" s="22" t="s">
         <v>391</v>
       </c>
       <c r="B367" s="18" t="s">
@@ -33358,14 +33358,14 @@
         <v>562</v>
       </c>
       <c r="Z367" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA367" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A368" s="25" t="s">
+      <c r="A368" s="22" t="s">
         <v>392</v>
       </c>
       <c r="B368" s="18" t="s">
@@ -33441,14 +33441,14 @@
         <v>562</v>
       </c>
       <c r="Z368" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA368" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A369" s="25" t="s">
+      <c r="A369" s="22" t="s">
         <v>393</v>
       </c>
       <c r="B369" s="18" t="s">
@@ -33524,14 +33524,14 @@
         <v>562</v>
       </c>
       <c r="Z369" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA369" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A370" s="25" t="s">
+      <c r="A370" s="22" t="s">
         <v>394</v>
       </c>
       <c r="B370" s="18" t="s">
@@ -33607,14 +33607,14 @@
         <v>562</v>
       </c>
       <c r="Z370" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA370" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A371" s="25" t="s">
+      <c r="A371" s="22" t="s">
         <v>395</v>
       </c>
       <c r="B371" s="18" t="s">
@@ -33690,14 +33690,14 @@
         <v>562</v>
       </c>
       <c r="Z371" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA371" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A372" s="25" t="s">
+      <c r="A372" s="22" t="s">
         <v>396</v>
       </c>
       <c r="B372" s="18" t="s">
@@ -33773,14 +33773,14 @@
         <v>562</v>
       </c>
       <c r="Z372" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA372" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A373" s="25" t="s">
+      <c r="A373" s="22" t="s">
         <v>397</v>
       </c>
       <c r="B373" s="18" t="s">
@@ -33856,14 +33856,14 @@
         <v>562</v>
       </c>
       <c r="Z373" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA373" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A374" s="25" t="s">
+      <c r="A374" s="22" t="s">
         <v>398</v>
       </c>
       <c r="B374" s="18" t="s">
@@ -33939,14 +33939,14 @@
         <v>562</v>
       </c>
       <c r="Z374" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA374" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A375" s="25" t="s">
+      <c r="A375" s="22" t="s">
         <v>399</v>
       </c>
       <c r="B375" s="18" t="s">
@@ -34022,14 +34022,14 @@
         <v>562</v>
       </c>
       <c r="Z375" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA375" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A376" s="25" t="s">
+      <c r="A376" s="22" t="s">
         <v>400</v>
       </c>
       <c r="B376" s="18" t="s">
@@ -34105,14 +34105,14 @@
         <v>562</v>
       </c>
       <c r="Z376" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA376" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A377" s="25" t="s">
+      <c r="A377" s="22" t="s">
         <v>401</v>
       </c>
       <c r="B377" s="18" t="s">
@@ -34188,14 +34188,14 @@
         <v>562</v>
       </c>
       <c r="Z377" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA377" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A378" s="25" t="s">
+      <c r="A378" s="22" t="s">
         <v>402</v>
       </c>
       <c r="B378" s="18" t="s">
@@ -34271,14 +34271,14 @@
         <v>562</v>
       </c>
       <c r="Z378" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA378" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A379" s="25" t="s">
+      <c r="A379" s="22" t="s">
         <v>403</v>
       </c>
       <c r="B379" s="18" t="s">
@@ -34354,14 +34354,14 @@
         <v>562</v>
       </c>
       <c r="Z379" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA379" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A380" s="25" t="s">
+      <c r="A380" s="22" t="s">
         <v>404</v>
       </c>
       <c r="B380" s="18" t="s">
@@ -34437,14 +34437,14 @@
         <v>562</v>
       </c>
       <c r="Z380" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA380" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A381" s="25" t="s">
+      <c r="A381" s="22" t="s">
         <v>405</v>
       </c>
       <c r="B381" s="18" t="s">
@@ -34520,14 +34520,14 @@
         <v>562</v>
       </c>
       <c r="Z381" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA381" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A382" s="25" t="s">
+      <c r="A382" s="22" t="s">
         <v>406</v>
       </c>
       <c r="B382" s="18" t="s">
@@ -34603,14 +34603,14 @@
         <v>562</v>
       </c>
       <c r="Z382" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA382" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A383" s="25" t="s">
+      <c r="A383" s="22" t="s">
         <v>407</v>
       </c>
       <c r="B383" s="18" t="s">
@@ -34686,14 +34686,14 @@
         <v>562</v>
       </c>
       <c r="Z383" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA383" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A384" s="25" t="s">
+      <c r="A384" s="22" t="s">
         <v>408</v>
       </c>
       <c r="B384" s="18" t="s">
@@ -34769,14 +34769,14 @@
         <v>562</v>
       </c>
       <c r="Z384" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA384" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A385" s="25" t="s">
+      <c r="A385" s="22" t="s">
         <v>409</v>
       </c>
       <c r="B385" s="18" t="s">
@@ -34852,14 +34852,14 @@
         <v>562</v>
       </c>
       <c r="Z385" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA385" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A386" s="25" t="s">
+      <c r="A386" s="22" t="s">
         <v>410</v>
       </c>
       <c r="B386" s="18" t="s">
@@ -34935,14 +34935,14 @@
         <v>562</v>
       </c>
       <c r="Z386" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA386" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A387" s="25" t="s">
+      <c r="A387" s="22" t="s">
         <v>411</v>
       </c>
       <c r="B387" s="18" t="s">
@@ -35018,14 +35018,14 @@
         <v>562</v>
       </c>
       <c r="Z387" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA387" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A388" s="25" t="s">
+      <c r="A388" s="22" t="s">
         <v>412</v>
       </c>
       <c r="B388" s="18" t="s">
@@ -35101,14 +35101,14 @@
         <v>562</v>
       </c>
       <c r="Z388" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA388" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A389" s="25" t="s">
+      <c r="A389" s="22" t="s">
         <v>413</v>
       </c>
       <c r="B389" s="18" t="s">
@@ -35184,14 +35184,14 @@
         <v>562</v>
       </c>
       <c r="Z389" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA389" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A390" s="25" t="s">
+      <c r="A390" s="22" t="s">
         <v>414</v>
       </c>
       <c r="B390" s="18" t="s">
@@ -35267,14 +35267,14 @@
         <v>562</v>
       </c>
       <c r="Z390" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA390" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A391" s="25" t="s">
+      <c r="A391" s="22" t="s">
         <v>415</v>
       </c>
       <c r="B391" s="18" t="s">
@@ -35350,14 +35350,14 @@
         <v>562</v>
       </c>
       <c r="Z391" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA391" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A392" s="25" t="s">
+      <c r="A392" s="22" t="s">
         <v>416</v>
       </c>
       <c r="B392" s="18" t="s">
@@ -35433,14 +35433,14 @@
         <v>562</v>
       </c>
       <c r="Z392" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA392" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A393" s="25" t="s">
+      <c r="A393" s="22" t="s">
         <v>417</v>
       </c>
       <c r="B393" s="18" t="s">
@@ -35516,14 +35516,14 @@
         <v>562</v>
       </c>
       <c r="Z393" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA393" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A394" s="25" t="s">
+      <c r="A394" s="22" t="s">
         <v>418</v>
       </c>
       <c r="B394" s="18" t="s">
@@ -35599,14 +35599,14 @@
         <v>562</v>
       </c>
       <c r="Z394" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA394" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A395" s="25" t="s">
+      <c r="A395" s="22" t="s">
         <v>419</v>
       </c>
       <c r="B395" s="18" t="s">
@@ -35682,14 +35682,14 @@
         <v>562</v>
       </c>
       <c r="Z395" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA395" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A396" s="25" t="s">
+      <c r="A396" s="22" t="s">
         <v>420</v>
       </c>
       <c r="B396" s="18" t="s">
@@ -35765,14 +35765,14 @@
         <v>562</v>
       </c>
       <c r="Z396" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA396" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A397" s="25" t="s">
+      <c r="A397" s="22" t="s">
         <v>421</v>
       </c>
       <c r="B397" s="18" t="s">
@@ -35848,14 +35848,14 @@
         <v>562</v>
       </c>
       <c r="Z397" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA397" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A398" s="25" t="s">
+      <c r="A398" s="22" t="s">
         <v>422</v>
       </c>
       <c r="B398" s="18" t="s">
@@ -35931,14 +35931,14 @@
         <v>562</v>
       </c>
       <c r="Z398" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA398" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A399" s="25" t="s">
+      <c r="A399" s="22" t="s">
         <v>423</v>
       </c>
       <c r="B399" s="18" t="s">
@@ -36014,14 +36014,14 @@
         <v>562</v>
       </c>
       <c r="Z399" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA399" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A400" s="25" t="s">
+      <c r="A400" s="22" t="s">
         <v>424</v>
       </c>
       <c r="B400" s="18" t="s">
@@ -36097,14 +36097,14 @@
         <v>562</v>
       </c>
       <c r="Z400" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA400" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A401" s="25" t="s">
+      <c r="A401" s="22" t="s">
         <v>425</v>
       </c>
       <c r="B401" s="18" t="s">
@@ -36180,14 +36180,14 @@
         <v>562</v>
       </c>
       <c r="Z401" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA401" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="22" t="s">
         <v>426</v>
       </c>
       <c r="B402" s="18" t="s">
@@ -36263,14 +36263,14 @@
         <v>562</v>
       </c>
       <c r="Z402" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA402" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A403" s="25" t="s">
+      <c r="A403" s="22" t="s">
         <v>427</v>
       </c>
       <c r="B403" s="18" t="s">
@@ -36346,14 +36346,14 @@
         <v>562</v>
       </c>
       <c r="Z403" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA403" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A404" s="25" t="s">
+      <c r="A404" s="22" t="s">
         <v>428</v>
       </c>
       <c r="B404" s="18" t="s">
@@ -36429,14 +36429,14 @@
         <v>562</v>
       </c>
       <c r="Z404" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA404" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A405" s="25" t="s">
+      <c r="A405" s="22" t="s">
         <v>429</v>
       </c>
       <c r="B405" s="18" t="s">
@@ -36512,14 +36512,14 @@
         <v>562</v>
       </c>
       <c r="Z405" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA405" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A406" s="25" t="s">
+      <c r="A406" s="22" t="s">
         <v>430</v>
       </c>
       <c r="B406" s="18" t="s">
@@ -36595,14 +36595,14 @@
         <v>562</v>
       </c>
       <c r="Z406" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA406" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A407" s="25" t="s">
+      <c r="A407" s="22" t="s">
         <v>431</v>
       </c>
       <c r="B407" s="18" t="s">
@@ -36678,14 +36678,14 @@
         <v>562</v>
       </c>
       <c r="Z407" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA407" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A408" s="25" t="s">
+      <c r="A408" s="22" t="s">
         <v>432</v>
       </c>
       <c r="B408" s="18" t="s">
@@ -36761,14 +36761,14 @@
         <v>562</v>
       </c>
       <c r="Z408" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA408" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A409" s="25" t="s">
+      <c r="A409" s="22" t="s">
         <v>433</v>
       </c>
       <c r="B409" s="18" t="s">
@@ -36844,14 +36844,14 @@
         <v>562</v>
       </c>
       <c r="Z409" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA409" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A410" s="25" t="s">
+      <c r="A410" s="22" t="s">
         <v>434</v>
       </c>
       <c r="B410" s="18" t="s">
@@ -36927,14 +36927,14 @@
         <v>562</v>
       </c>
       <c r="Z410" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA410" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A411" s="25" t="s">
+      <c r="A411" s="22" t="s">
         <v>435</v>
       </c>
       <c r="B411" s="18" t="s">
@@ -37010,14 +37010,14 @@
         <v>562</v>
       </c>
       <c r="Z411" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA411" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A412" s="25" t="s">
+      <c r="A412" s="22" t="s">
         <v>436</v>
       </c>
       <c r="B412" s="18" t="s">
@@ -37093,14 +37093,14 @@
         <v>562</v>
       </c>
       <c r="Z412" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA412" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A413" s="25" t="s">
+      <c r="A413" s="22" t="s">
         <v>437</v>
       </c>
       <c r="B413" s="18" t="s">
@@ -37176,14 +37176,14 @@
         <v>562</v>
       </c>
       <c r="Z413" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA413" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A414" s="25" t="s">
+      <c r="A414" s="22" t="s">
         <v>438</v>
       </c>
       <c r="B414" s="18" t="s">
@@ -37259,14 +37259,14 @@
         <v>562</v>
       </c>
       <c r="Z414" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA414" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A415" s="25" t="s">
+      <c r="A415" s="22" t="s">
         <v>439</v>
       </c>
       <c r="B415" s="18" t="s">
@@ -37342,14 +37342,14 @@
         <v>562</v>
       </c>
       <c r="Z415" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA415" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A416" s="25" t="s">
+      <c r="A416" s="22" t="s">
         <v>440</v>
       </c>
       <c r="B416" s="18" t="s">
@@ -37425,14 +37425,14 @@
         <v>562</v>
       </c>
       <c r="Z416" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA416" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A417" s="25" t="s">
+      <c r="A417" s="22" t="s">
         <v>441</v>
       </c>
       <c r="B417" s="18" t="s">
@@ -37508,14 +37508,14 @@
         <v>562</v>
       </c>
       <c r="Z417" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA417" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A418" s="25" t="s">
+      <c r="A418" s="22" t="s">
         <v>442</v>
       </c>
       <c r="B418" s="18" t="s">
@@ -37591,14 +37591,14 @@
         <v>562</v>
       </c>
       <c r="Z418" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA418" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A419" s="25" t="s">
+      <c r="A419" s="22" t="s">
         <v>443</v>
       </c>
       <c r="B419" s="18" t="s">
@@ -37674,14 +37674,14 @@
         <v>562</v>
       </c>
       <c r="Z419" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA419" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A420" s="25" t="s">
+      <c r="A420" s="22" t="s">
         <v>444</v>
       </c>
       <c r="B420" s="18" t="s">
@@ -37757,14 +37757,14 @@
         <v>562</v>
       </c>
       <c r="Z420" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA420" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A421" s="25" t="s">
+      <c r="A421" s="22" t="s">
         <v>445</v>
       </c>
       <c r="B421" s="18" t="s">
@@ -37840,14 +37840,14 @@
         <v>562</v>
       </c>
       <c r="Z421" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA421" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A422" s="25" t="s">
+      <c r="A422" s="22" t="s">
         <v>446</v>
       </c>
       <c r="B422" s="18" t="s">
@@ -37923,14 +37923,14 @@
         <v>562</v>
       </c>
       <c r="Z422" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA422" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A423" s="25" t="s">
+      <c r="A423" s="22" t="s">
         <v>447</v>
       </c>
       <c r="B423" s="18" t="s">
@@ -38006,14 +38006,14 @@
         <v>562</v>
       </c>
       <c r="Z423" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA423" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A424" s="25" t="s">
+      <c r="A424" s="22" t="s">
         <v>448</v>
       </c>
       <c r="B424" s="18" t="s">
@@ -38089,14 +38089,14 @@
         <v>562</v>
       </c>
       <c r="Z424" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA424" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A425" s="25" t="s">
+      <c r="A425" s="22" t="s">
         <v>449</v>
       </c>
       <c r="B425" s="18" t="s">
@@ -38172,14 +38172,14 @@
         <v>562</v>
       </c>
       <c r="Z425" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA425" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A426" s="25" t="s">
+      <c r="A426" s="22" t="s">
         <v>450</v>
       </c>
       <c r="B426" s="18" t="s">
@@ -38255,14 +38255,14 @@
         <v>562</v>
       </c>
       <c r="Z426" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA426" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A427" s="25" t="s">
+      <c r="A427" s="22" t="s">
         <v>451</v>
       </c>
       <c r="B427" s="18" t="s">
@@ -38338,14 +38338,14 @@
         <v>562</v>
       </c>
       <c r="Z427" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA427" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A428" s="25" t="s">
+      <c r="A428" s="22" t="s">
         <v>452</v>
       </c>
       <c r="B428" s="18" t="s">
@@ -38421,14 +38421,14 @@
         <v>562</v>
       </c>
       <c r="Z428" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA428" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A429" s="25" t="s">
+      <c r="A429" s="22" t="s">
         <v>453</v>
       </c>
       <c r="B429" s="18" t="s">
@@ -38504,14 +38504,14 @@
         <v>562</v>
       </c>
       <c r="Z429" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA429" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A430" s="25" t="s">
+      <c r="A430" s="22" t="s">
         <v>454</v>
       </c>
       <c r="B430" s="18" t="s">
@@ -38587,14 +38587,14 @@
         <v>562</v>
       </c>
       <c r="Z430" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA430" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A431" s="25" t="s">
+      <c r="A431" s="22" t="s">
         <v>455</v>
       </c>
       <c r="B431" s="18" t="s">
@@ -38670,14 +38670,14 @@
         <v>562</v>
       </c>
       <c r="Z431" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA431" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A432" s="25" t="s">
+      <c r="A432" s="22" t="s">
         <v>456</v>
       </c>
       <c r="B432" s="18" t="s">
@@ -38753,14 +38753,14 @@
         <v>562</v>
       </c>
       <c r="Z432" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA432" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A433" s="25" t="s">
+      <c r="A433" s="22" t="s">
         <v>457</v>
       </c>
       <c r="B433" s="18" t="s">
@@ -38836,14 +38836,14 @@
         <v>562</v>
       </c>
       <c r="Z433" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA433" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A434" s="25" t="s">
+      <c r="A434" s="22" t="s">
         <v>458</v>
       </c>
       <c r="B434" s="18" t="s">
@@ -38919,14 +38919,14 @@
         <v>562</v>
       </c>
       <c r="Z434" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA434" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A435" s="25" t="s">
+      <c r="A435" s="22" t="s">
         <v>459</v>
       </c>
       <c r="B435" s="18" t="s">
@@ -39002,14 +39002,14 @@
         <v>562</v>
       </c>
       <c r="Z435" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA435" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A436" s="25" t="s">
+      <c r="A436" s="22" t="s">
         <v>460</v>
       </c>
       <c r="B436" s="18" t="s">
@@ -39085,14 +39085,14 @@
         <v>562</v>
       </c>
       <c r="Z436" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA436" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A437" s="25" t="s">
+      <c r="A437" s="22" t="s">
         <v>461</v>
       </c>
       <c r="B437" s="18" t="s">
@@ -39168,14 +39168,14 @@
         <v>562</v>
       </c>
       <c r="Z437" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA437" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A438" s="25" t="s">
+      <c r="A438" s="22" t="s">
         <v>462</v>
       </c>
       <c r="B438" s="18" t="s">
@@ -39251,14 +39251,14 @@
         <v>562</v>
       </c>
       <c r="Z438" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA438" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A439" s="25" t="s">
+      <c r="A439" s="22" t="s">
         <v>463</v>
       </c>
       <c r="B439" s="18" t="s">
@@ -39334,14 +39334,14 @@
         <v>562</v>
       </c>
       <c r="Z439" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA439" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A440" s="25" t="s">
+      <c r="A440" s="22" t="s">
         <v>464</v>
       </c>
       <c r="B440" s="18" t="s">
@@ -39417,14 +39417,14 @@
         <v>562</v>
       </c>
       <c r="Z440" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA440" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A441" s="25" t="s">
+      <c r="A441" s="22" t="s">
         <v>465</v>
       </c>
       <c r="B441" s="18" t="s">
@@ -39500,14 +39500,14 @@
         <v>562</v>
       </c>
       <c r="Z441" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA441" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A442" s="25" t="s">
+      <c r="A442" s="22" t="s">
         <v>466</v>
       </c>
       <c r="B442" s="18" t="s">
@@ -39583,14 +39583,14 @@
         <v>562</v>
       </c>
       <c r="Z442" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA442" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A443" s="25" t="s">
+      <c r="A443" s="22" t="s">
         <v>467</v>
       </c>
       <c r="B443" s="18" t="s">
@@ -39666,14 +39666,14 @@
         <v>562</v>
       </c>
       <c r="Z443" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA443" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A444" s="25" t="s">
+      <c r="A444" s="22" t="s">
         <v>468</v>
       </c>
       <c r="B444" s="18" t="s">
@@ -39749,14 +39749,14 @@
         <v>562</v>
       </c>
       <c r="Z444" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA444" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A445" s="25" t="s">
+      <c r="A445" s="22" t="s">
         <v>469</v>
       </c>
       <c r="B445" s="18" t="s">
@@ -39832,14 +39832,14 @@
         <v>562</v>
       </c>
       <c r="Z445" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA445" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A446" s="25" t="s">
+      <c r="A446" s="22" t="s">
         <v>470</v>
       </c>
       <c r="B446" s="18" t="s">
@@ -39915,14 +39915,14 @@
         <v>562</v>
       </c>
       <c r="Z446" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA446" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A447" s="25" t="s">
+      <c r="A447" s="22" t="s">
         <v>471</v>
       </c>
       <c r="B447" s="18" t="s">
@@ -39998,14 +39998,14 @@
         <v>562</v>
       </c>
       <c r="Z447" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA447" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A448" s="25" t="s">
+      <c r="A448" s="22" t="s">
         <v>472</v>
       </c>
       <c r="B448" s="18" t="s">
@@ -40081,14 +40081,14 @@
         <v>562</v>
       </c>
       <c r="Z448" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA448" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A449" s="25" t="s">
+      <c r="A449" s="22" t="s">
         <v>473</v>
       </c>
       <c r="B449" s="18" t="s">
@@ -40164,14 +40164,14 @@
         <v>562</v>
       </c>
       <c r="Z449" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA449" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A450" s="25" t="s">
+      <c r="A450" s="22" t="s">
         <v>474</v>
       </c>
       <c r="B450" s="18" t="s">
@@ -40247,14 +40247,14 @@
         <v>562</v>
       </c>
       <c r="Z450" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA450" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A451" s="25" t="s">
+      <c r="A451" s="22" t="s">
         <v>475</v>
       </c>
       <c r="B451" s="18" t="s">
@@ -40330,14 +40330,14 @@
         <v>562</v>
       </c>
       <c r="Z451" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA451" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A452" s="25" t="s">
+      <c r="A452" s="22" t="s">
         <v>476</v>
       </c>
       <c r="B452" s="18" t="s">
@@ -40413,14 +40413,14 @@
         <v>562</v>
       </c>
       <c r="Z452" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA452" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A453" s="25" t="s">
+      <c r="A453" s="22" t="s">
         <v>477</v>
       </c>
       <c r="B453" s="18" t="s">
@@ -40496,14 +40496,14 @@
         <v>562</v>
       </c>
       <c r="Z453" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA453" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A454" s="25" t="s">
+      <c r="A454" s="22" t="s">
         <v>478</v>
       </c>
       <c r="B454" s="18" t="s">
@@ -40579,14 +40579,14 @@
         <v>562</v>
       </c>
       <c r="Z454" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA454" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A455" s="25" t="s">
+      <c r="A455" s="22" t="s">
         <v>479</v>
       </c>
       <c r="B455" s="18" t="s">
@@ -40662,14 +40662,14 @@
         <v>562</v>
       </c>
       <c r="Z455" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA455" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A456" s="25" t="s">
+      <c r="A456" s="22" t="s">
         <v>480</v>
       </c>
       <c r="B456" s="18" t="s">
@@ -40745,14 +40745,14 @@
         <v>562</v>
       </c>
       <c r="Z456" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA456" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A457" s="25" t="s">
+      <c r="A457" s="22" t="s">
         <v>481</v>
       </c>
       <c r="B457" s="18" t="s">
@@ -40828,14 +40828,14 @@
         <v>562</v>
       </c>
       <c r="Z457" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA457" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A458" s="25" t="s">
+      <c r="A458" s="22" t="s">
         <v>482</v>
       </c>
       <c r="B458" s="18" t="s">
@@ -40911,14 +40911,14 @@
         <v>562</v>
       </c>
       <c r="Z458" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA458" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A459" s="25" t="s">
+      <c r="A459" s="22" t="s">
         <v>483</v>
       </c>
       <c r="B459" s="18" t="s">
@@ -40994,14 +40994,14 @@
         <v>562</v>
       </c>
       <c r="Z459" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA459" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A460" s="25" t="s">
+      <c r="A460" s="22" t="s">
         <v>484</v>
       </c>
       <c r="B460" s="18" t="s">
@@ -41077,14 +41077,14 @@
         <v>562</v>
       </c>
       <c r="Z460" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA460" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A461" s="25" t="s">
+      <c r="A461" s="22" t="s">
         <v>485</v>
       </c>
       <c r="B461" s="18" t="s">
@@ -41160,14 +41160,14 @@
         <v>562</v>
       </c>
       <c r="Z461" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA461" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A462" s="25" t="s">
+      <c r="A462" s="22" t="s">
         <v>486</v>
       </c>
       <c r="B462" s="18" t="s">
@@ -41243,14 +41243,14 @@
         <v>562</v>
       </c>
       <c r="Z462" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA462" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A463" s="25" t="s">
+      <c r="A463" s="22" t="s">
         <v>487</v>
       </c>
       <c r="B463" s="18" t="s">
@@ -41326,14 +41326,14 @@
         <v>562</v>
       </c>
       <c r="Z463" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA463" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A464" s="25" t="s">
+      <c r="A464" s="22" t="s">
         <v>488</v>
       </c>
       <c r="B464" s="18" t="s">
@@ -41409,14 +41409,14 @@
         <v>562</v>
       </c>
       <c r="Z464" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA464" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A465" s="25" t="s">
+      <c r="A465" s="22" t="s">
         <v>489</v>
       </c>
       <c r="B465" s="18" t="s">
@@ -41492,14 +41492,14 @@
         <v>562</v>
       </c>
       <c r="Z465" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA465" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A466" s="25" t="s">
+      <c r="A466" s="22" t="s">
         <v>490</v>
       </c>
       <c r="B466" s="18" t="s">
@@ -41575,14 +41575,14 @@
         <v>562</v>
       </c>
       <c r="Z466" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA466" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A467" s="25" t="s">
+      <c r="A467" s="22" t="s">
         <v>491</v>
       </c>
       <c r="B467" s="18" t="s">
@@ -41658,14 +41658,14 @@
         <v>562</v>
       </c>
       <c r="Z467" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA467" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A468" s="25" t="s">
+      <c r="A468" s="22" t="s">
         <v>492</v>
       </c>
       <c r="B468" s="18" t="s">
@@ -41741,14 +41741,14 @@
         <v>562</v>
       </c>
       <c r="Z468" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA468" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A469" s="25" t="s">
+      <c r="A469" s="22" t="s">
         <v>493</v>
       </c>
       <c r="B469" s="18" t="s">
@@ -41824,14 +41824,14 @@
         <v>562</v>
       </c>
       <c r="Z469" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA469" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A470" s="25" t="s">
+      <c r="A470" s="22" t="s">
         <v>494</v>
       </c>
       <c r="B470" s="18" t="s">
@@ -41907,14 +41907,14 @@
         <v>562</v>
       </c>
       <c r="Z470" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA470" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A471" s="25" t="s">
+      <c r="A471" s="22" t="s">
         <v>495</v>
       </c>
       <c r="B471" s="18" t="s">
@@ -41990,14 +41990,14 @@
         <v>562</v>
       </c>
       <c r="Z471" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA471" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A472" s="25" t="s">
+      <c r="A472" s="22" t="s">
         <v>496</v>
       </c>
       <c r="B472" s="18" t="s">
@@ -42073,14 +42073,14 @@
         <v>562</v>
       </c>
       <c r="Z472" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA472" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A473" s="25" t="s">
+      <c r="A473" s="22" t="s">
         <v>497</v>
       </c>
       <c r="B473" s="18" t="s">
@@ -42156,14 +42156,14 @@
         <v>562</v>
       </c>
       <c r="Z473" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA473" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A474" s="25" t="s">
+      <c r="A474" s="22" t="s">
         <v>498</v>
       </c>
       <c r="B474" s="18" t="s">
@@ -42239,14 +42239,14 @@
         <v>562</v>
       </c>
       <c r="Z474" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA474" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A475" s="25" t="s">
+      <c r="A475" s="22" t="s">
         <v>499</v>
       </c>
       <c r="B475" s="18" t="s">
@@ -42322,14 +42322,14 @@
         <v>562</v>
       </c>
       <c r="Z475" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA475" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A476" s="25" t="s">
+      <c r="A476" s="22" t="s">
         <v>500</v>
       </c>
       <c r="B476" s="18" t="s">
@@ -42405,14 +42405,14 @@
         <v>562</v>
       </c>
       <c r="Z476" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA476" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A477" s="25" t="s">
+      <c r="A477" s="22" t="s">
         <v>501</v>
       </c>
       <c r="B477" s="18" t="s">
@@ -42488,14 +42488,14 @@
         <v>562</v>
       </c>
       <c r="Z477" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA477" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A478" s="25" t="s">
+      <c r="A478" s="22" t="s">
         <v>502</v>
       </c>
       <c r="B478" s="18" t="s">
@@ -42571,14 +42571,14 @@
         <v>562</v>
       </c>
       <c r="Z478" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA478" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A479" s="25" t="s">
+      <c r="A479" s="22" t="s">
         <v>503</v>
       </c>
       <c r="B479" s="18" t="s">
@@ -42654,14 +42654,14 @@
         <v>562</v>
       </c>
       <c r="Z479" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA479" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A480" s="25" t="s">
+      <c r="A480" s="22" t="s">
         <v>504</v>
       </c>
       <c r="B480" s="18" t="s">
@@ -42737,14 +42737,14 @@
         <v>562</v>
       </c>
       <c r="Z480" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA480" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A481" s="25" t="s">
+      <c r="A481" s="22" t="s">
         <v>505</v>
       </c>
       <c r="B481" s="18" t="s">
@@ -42820,14 +42820,14 @@
         <v>562</v>
       </c>
       <c r="Z481" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA481" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A482" s="25" t="s">
+      <c r="A482" s="22" t="s">
         <v>506</v>
       </c>
       <c r="B482" s="18" t="s">
@@ -42903,14 +42903,14 @@
         <v>562</v>
       </c>
       <c r="Z482" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA482" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A483" s="25" t="s">
+      <c r="A483" s="22" t="s">
         <v>507</v>
       </c>
       <c r="B483" s="18" t="s">
@@ -42986,14 +42986,14 @@
         <v>562</v>
       </c>
       <c r="Z483" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA483" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A484" s="25" t="s">
+      <c r="A484" s="22" t="s">
         <v>508</v>
       </c>
       <c r="B484" s="18" t="s">
@@ -43069,14 +43069,14 @@
         <v>562</v>
       </c>
       <c r="Z484" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA484" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A485" s="25" t="s">
+      <c r="A485" s="22" t="s">
         <v>509</v>
       </c>
       <c r="B485" s="18" t="s">
@@ -43152,14 +43152,14 @@
         <v>562</v>
       </c>
       <c r="Z485" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA485" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A486" s="25" t="s">
+      <c r="A486" s="22" t="s">
         <v>510</v>
       </c>
       <c r="B486" s="18" t="s">
@@ -43235,14 +43235,14 @@
         <v>562</v>
       </c>
       <c r="Z486" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA486" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A487" s="25" t="s">
+      <c r="A487" s="22" t="s">
         <v>511</v>
       </c>
       <c r="B487" s="18" t="s">
@@ -43318,14 +43318,14 @@
         <v>562</v>
       </c>
       <c r="Z487" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA487" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A488" s="25" t="s">
+      <c r="A488" s="22" t="s">
         <v>512</v>
       </c>
       <c r="B488" s="18" t="s">
@@ -43401,14 +43401,14 @@
         <v>562</v>
       </c>
       <c r="Z488" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA488" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A489" s="25" t="s">
+      <c r="A489" s="22" t="s">
         <v>513</v>
       </c>
       <c r="B489" s="18" t="s">
@@ -43484,14 +43484,14 @@
         <v>562</v>
       </c>
       <c r="Z489" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA489" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A490" s="25" t="s">
+      <c r="A490" s="22" t="s">
         <v>514</v>
       </c>
       <c r="B490" s="18" t="s">
@@ -43567,14 +43567,14 @@
         <v>562</v>
       </c>
       <c r="Z490" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA490" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A491" s="25" t="s">
+      <c r="A491" s="22" t="s">
         <v>515</v>
       </c>
       <c r="B491" s="18" t="s">
@@ -43650,14 +43650,14 @@
         <v>562</v>
       </c>
       <c r="Z491" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA491" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A492" s="25" t="s">
+      <c r="A492" s="22" t="s">
         <v>516</v>
       </c>
       <c r="B492" s="18" t="s">
@@ -43733,14 +43733,14 @@
         <v>562</v>
       </c>
       <c r="Z492" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA492" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A493" s="25" t="s">
+      <c r="A493" s="22" t="s">
         <v>517</v>
       </c>
       <c r="B493" s="18" t="s">
@@ -43816,14 +43816,14 @@
         <v>562</v>
       </c>
       <c r="Z493" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA493" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A494" s="25" t="s">
+      <c r="A494" s="22" t="s">
         <v>518</v>
       </c>
       <c r="B494" s="18" t="s">
@@ -43899,14 +43899,14 @@
         <v>562</v>
       </c>
       <c r="Z494" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA494" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A495" s="25" t="s">
+      <c r="A495" s="22" t="s">
         <v>519</v>
       </c>
       <c r="B495" s="18" t="s">
@@ -43982,14 +43982,14 @@
         <v>562</v>
       </c>
       <c r="Z495" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA495" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A496" s="25" t="s">
+      <c r="A496" s="22" t="s">
         <v>520</v>
       </c>
       <c r="B496" s="18" t="s">
@@ -44065,14 +44065,14 @@
         <v>562</v>
       </c>
       <c r="Z496" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA496" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A497" s="25" t="s">
+      <c r="A497" s="22" t="s">
         <v>521</v>
       </c>
       <c r="B497" s="18" t="s">
@@ -44148,14 +44148,14 @@
         <v>562</v>
       </c>
       <c r="Z497" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA497" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A498" s="25" t="s">
+      <c r="A498" s="22" t="s">
         <v>522</v>
       </c>
       <c r="B498" s="18" t="s">
@@ -44231,14 +44231,14 @@
         <v>562</v>
       </c>
       <c r="Z498" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA498" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A499" s="25" t="s">
+      <c r="A499" s="22" t="s">
         <v>523</v>
       </c>
       <c r="B499" s="18" t="s">
@@ -44314,14 +44314,14 @@
         <v>562</v>
       </c>
       <c r="Z499" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA499" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A500" s="25" t="s">
+      <c r="A500" s="22" t="s">
         <v>524</v>
       </c>
       <c r="B500" s="18" t="s">
@@ -44397,14 +44397,14 @@
         <v>562</v>
       </c>
       <c r="Z500" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA500" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="501" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A501" s="25" t="s">
+      <c r="A501" s="22" t="s">
         <v>525</v>
       </c>
       <c r="B501" s="18" t="s">
@@ -44480,14 +44480,14 @@
         <v>562</v>
       </c>
       <c r="Z501" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA501" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="502" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A502" s="25" t="s">
+      <c r="A502" s="22" t="s">
         <v>526</v>
       </c>
       <c r="B502" s="18" t="s">
@@ -44563,14 +44563,14 @@
         <v>562</v>
       </c>
       <c r="Z502" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA502" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="503" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A503" s="25" t="s">
+      <c r="A503" s="22" t="s">
         <v>527</v>
       </c>
       <c r="B503" s="18" t="s">
@@ -44646,14 +44646,14 @@
         <v>562</v>
       </c>
       <c r="Z503" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA503" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="504" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A504" s="25" t="s">
+      <c r="A504" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B504" s="18" t="s">
@@ -44729,14 +44729,14 @@
         <v>562</v>
       </c>
       <c r="Z504" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA504" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="505" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A505" s="25" t="s">
+      <c r="A505" s="22" t="s">
         <v>529</v>
       </c>
       <c r="B505" s="18" t="s">
@@ -44812,14 +44812,14 @@
         <v>562</v>
       </c>
       <c r="Z505" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA505" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="506" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A506" s="25" t="s">
+      <c r="A506" s="22" t="s">
         <v>530</v>
       </c>
       <c r="B506" s="18" t="s">
@@ -44895,14 +44895,14 @@
         <v>562</v>
       </c>
       <c r="Z506" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA506" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="507" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A507" s="25" t="s">
+      <c r="A507" s="22" t="s">
         <v>531</v>
       </c>
       <c r="B507" s="18" t="s">
@@ -44978,14 +44978,14 @@
         <v>562</v>
       </c>
       <c r="Z507" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA507" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="508" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A508" s="25" t="s">
+      <c r="A508" s="22" t="s">
         <v>532</v>
       </c>
       <c r="B508" s="18" t="s">
@@ -45061,14 +45061,14 @@
         <v>562</v>
       </c>
       <c r="Z508" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA508" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="509" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A509" s="25" t="s">
+      <c r="A509" s="22" t="s">
         <v>533</v>
       </c>
       <c r="B509" s="18" t="s">
@@ -45144,14 +45144,14 @@
         <v>562</v>
       </c>
       <c r="Z509" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA509" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="510" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A510" s="25" t="s">
+      <c r="A510" s="22" t="s">
         <v>534</v>
       </c>
       <c r="B510" s="18" t="s">
@@ -45227,14 +45227,14 @@
         <v>562</v>
       </c>
       <c r="Z510" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA510" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="511" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A511" s="25" t="s">
+      <c r="A511" s="22" t="s">
         <v>535</v>
       </c>
       <c r="B511" s="18" t="s">
@@ -45310,14 +45310,14 @@
         <v>562</v>
       </c>
       <c r="Z511" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA511" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="512" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A512" s="25" t="s">
+      <c r="A512" s="22" t="s">
         <v>536</v>
       </c>
       <c r="B512" s="18" t="s">
@@ -45393,14 +45393,14 @@
         <v>562</v>
       </c>
       <c r="Z512" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA512" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="513" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A513" s="25" t="s">
+      <c r="A513" s="22" t="s">
         <v>537</v>
       </c>
       <c r="B513" s="18" t="s">
@@ -45476,14 +45476,14 @@
         <v>562</v>
       </c>
       <c r="Z513" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA513" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="514" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A514" s="25" t="s">
+      <c r="A514" s="22" t="s">
         <v>538</v>
       </c>
       <c r="B514" s="18" t="s">
@@ -45559,14 +45559,14 @@
         <v>562</v>
       </c>
       <c r="Z514" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA514" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="515" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A515" s="25" t="s">
+      <c r="A515" s="22" t="s">
         <v>539</v>
       </c>
       <c r="B515" s="18" t="s">
@@ -45642,14 +45642,14 @@
         <v>562</v>
       </c>
       <c r="Z515" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA515" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="516" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A516" s="25" t="s">
+      <c r="A516" s="22" t="s">
         <v>540</v>
       </c>
       <c r="B516" s="18" t="s">
@@ -45725,14 +45725,14 @@
         <v>562</v>
       </c>
       <c r="Z516" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA516" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="517" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A517" s="25" t="s">
+      <c r="A517" s="22" t="s">
         <v>541</v>
       </c>
       <c r="B517" s="18" t="s">
@@ -45808,14 +45808,14 @@
         <v>562</v>
       </c>
       <c r="Z517" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA517" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="518" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A518" s="25" t="s">
+      <c r="A518" s="22" t="s">
         <v>542</v>
       </c>
       <c r="B518" s="18" t="s">
@@ -45891,14 +45891,14 @@
         <v>562</v>
       </c>
       <c r="Z518" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA518" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="519" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A519" s="25" t="s">
+      <c r="A519" s="22" t="s">
         <v>543</v>
       </c>
       <c r="B519" s="18" t="s">
@@ -45974,14 +45974,14 @@
         <v>562</v>
       </c>
       <c r="Z519" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA519" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="520" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A520" s="25" t="s">
+      <c r="A520" s="22" t="s">
         <v>544</v>
       </c>
       <c r="B520" s="18" t="s">
@@ -46057,14 +46057,14 @@
         <v>562</v>
       </c>
       <c r="Z520" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA520" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="521" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A521" s="25" t="s">
+      <c r="A521" s="22" t="s">
         <v>545</v>
       </c>
       <c r="B521" s="18" t="s">
@@ -46140,14 +46140,14 @@
         <v>562</v>
       </c>
       <c r="Z521" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA521" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="522" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A522" s="25" t="s">
+      <c r="A522" s="22" t="s">
         <v>546</v>
       </c>
       <c r="B522" s="18" t="s">
@@ -46223,14 +46223,14 @@
         <v>562</v>
       </c>
       <c r="Z522" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA522" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="523" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A523" s="25" t="s">
+      <c r="A523" s="22" t="s">
         <v>547</v>
       </c>
       <c r="B523" s="18" t="s">
@@ -46306,14 +46306,14 @@
         <v>562</v>
       </c>
       <c r="Z523" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA523" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="524" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A524" s="25" t="s">
+      <c r="A524" s="22" t="s">
         <v>548</v>
       </c>
       <c r="B524" s="18" t="s">
@@ -46389,14 +46389,14 @@
         <v>562</v>
       </c>
       <c r="Z524" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA524" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="525" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A525" s="25" t="s">
+      <c r="A525" s="22" t="s">
         <v>549</v>
       </c>
       <c r="B525" s="18" t="s">
@@ -46472,14 +46472,14 @@
         <v>562</v>
       </c>
       <c r="Z525" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA525" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="526" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A526" s="25" t="s">
+      <c r="A526" s="22" t="s">
         <v>550</v>
       </c>
       <c r="B526" s="18" t="s">
@@ -46555,14 +46555,14 @@
         <v>562</v>
       </c>
       <c r="Z526" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA526" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="527" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A527" s="25" t="s">
+      <c r="A527" s="22" t="s">
         <v>551</v>
       </c>
       <c r="B527" s="18" t="s">
@@ -46638,14 +46638,14 @@
         <v>562</v>
       </c>
       <c r="Z527" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA527" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="528" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A528" s="25" t="s">
+      <c r="A528" s="22" t="s">
         <v>552</v>
       </c>
       <c r="B528" s="18" t="s">
@@ -46721,14 +46721,14 @@
         <v>562</v>
       </c>
       <c r="Z528" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA528" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="529" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A529" s="25" t="s">
+      <c r="A529" s="22" t="s">
         <v>553</v>
       </c>
       <c r="B529" s="18" t="s">
@@ -46804,14 +46804,14 @@
         <v>562</v>
       </c>
       <c r="Z529" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA529" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="530" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A530" s="25" t="s">
+      <c r="A530" s="22" t="s">
         <v>554</v>
       </c>
       <c r="B530" s="18" t="s">
@@ -46887,14 +46887,14 @@
         <v>562</v>
       </c>
       <c r="Z530" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA530" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="531" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A531" s="25" t="s">
+      <c r="A531" s="22" t="s">
         <v>555</v>
       </c>
       <c r="B531" s="18" t="s">
@@ -46970,14 +46970,14 @@
         <v>562</v>
       </c>
       <c r="Z531" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA531" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="532" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A532" s="25" t="s">
+      <c r="A532" s="22" t="s">
         <v>556</v>
       </c>
       <c r="B532" s="18" t="s">
@@ -47053,14 +47053,14 @@
         <v>562</v>
       </c>
       <c r="Z532" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA532" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="533" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A533" s="25" t="s">
+      <c r="A533" s="22" t="s">
         <v>557</v>
       </c>
       <c r="B533" s="18" t="s">
@@ -47136,10 +47136,10 @@
         <v>562</v>
       </c>
       <c r="Z533" s="17">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AA533" s="17">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -47151,7 +47151,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A533">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47214,10 +47214,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
